--- a/data/trans_orig/Q23_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q23_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FE240E7-9B62-4DED-B9BF-6E590BEF9C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47534D89-2191-4D75-A438-2850E23BC4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B91A811D-CFBE-46F3-ABC9-F3C87B833B98}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0E742A3F-AC83-4C90-A793-6FB3307C7572}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="599">
   <si>
     <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2007 (Tasa respuesta: 42,33%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>8,27%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
   </si>
   <si>
     <t>19,28%</t>
   </si>
   <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
   </si>
   <si>
     <t>12,39%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
   </si>
   <si>
     <t>Tercer Cuartil</t>
@@ -105,10 +105,10 @@
     <t>32,73%</t>
   </si>
   <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
   </si>
   <si>
     <t>22,78%</t>
@@ -117,16 +117,16 @@
     <t>14,78%</t>
   </si>
   <si>
-    <t>33,57%</t>
+    <t>33,64%</t>
   </si>
   <si>
     <t>29,01%</t>
   </si>
   <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
   </si>
   <si>
     <t>Segundo Cuartil</t>
@@ -135,28 +135,28 @@
     <t>21,51%</t>
   </si>
   <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
   </si>
   <si>
     <t>29,84%</t>
   </si>
   <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
   </si>
   <si>
     <t>24,63%</t>
   </si>
   <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
   </si>
   <si>
     <t>Primer Cuartil</t>
@@ -165,28 +165,28 @@
     <t>37,48%</t>
   </si>
   <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
   </si>
   <si>
     <t>28,1%</t>
   </si>
   <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
   </si>
   <si>
     <t>33,97%</t>
   </si>
   <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
   </si>
   <si>
     <t>100%</t>
@@ -198,1609 +198,1642 @@
     <t>11,16%</t>
   </si>
   <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
   </si>
   <si>
     <t>21,5%</t>
   </si>
   <si>
-    <t>15,04%</t>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2012 (Tasa respuesta: 49,24%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
   </si>
   <si>
     <t>28,8%</t>
   </si>
   <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
+    <t>26,88%</t>
   </si>
   <si>
     <t>30,91%</t>
   </si>
   <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
   </si>
   <si>
     <t>30,92%</t>
   </si>
   <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2012 (Tasa respuesta: 49,24%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
     <t>33,31%</t>
   </si>
   <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
   </si>
 </sst>
 </file>
@@ -2212,7 +2245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382D584C-920A-4FBF-A729-0875F05F6A46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E89B861-4D36-4388-96CF-709738922564}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3191,10 +3224,10 @@
         <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,13 +3242,13 @@
         <v>59947</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>26</v>
@@ -3224,13 +3257,13 @@
         <v>25404</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>86</v>
@@ -3239,13 +3272,13 @@
         <v>85351</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,13 +3293,13 @@
         <v>64523</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -3275,13 +3308,13 @@
         <v>29236</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>96</v>
@@ -3290,13 +3323,13 @@
         <v>93759</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,7 +3385,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3367,10 +3400,10 @@
         <v>110</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -3379,13 +3412,13 @@
         <v>14121</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>30</v>
@@ -3394,13 +3427,13 @@
         <v>29756</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,13 +3448,13 @@
         <v>46813</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>31</v>
@@ -3430,13 +3463,13 @@
         <v>33639</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>76</v>
@@ -3445,13 +3478,13 @@
         <v>80452</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,13 +3499,13 @@
         <v>20324</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -3481,13 +3514,13 @@
         <v>8129</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>30</v>
@@ -3496,13 +3529,13 @@
         <v>28454</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,13 +3550,13 @@
         <v>22904</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H27" s="7">
         <v>20</v>
@@ -3532,13 +3565,13 @@
         <v>21620</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M27" s="7">
         <v>44</v>
@@ -3547,13 +3580,13 @@
         <v>44525</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,7 +3642,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -3621,13 +3654,13 @@
         <v>9498</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -3636,13 +3669,13 @@
         <v>9729</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -3651,13 +3684,13 @@
         <v>19227</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,13 +3705,13 @@
         <v>58041</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H30" s="7">
         <v>26</v>
@@ -3687,13 +3720,13 @@
         <v>27934</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M30" s="7">
         <v>84</v>
@@ -3702,10 +3735,10 @@
         <v>85974</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>214</v>
@@ -3792,10 +3825,10 @@
         <v>227</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M32" s="7">
         <v>85</v>
@@ -3804,13 +3837,13 @@
         <v>87951</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3866,7 +3899,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3878,13 +3911,13 @@
         <v>34313</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>50</v>
@@ -3893,13 +3926,13 @@
         <v>51817</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>80</v>
@@ -3908,13 +3941,13 @@
         <v>86130</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,7 +3968,7 @@
         <v>243</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>41</v>
+        <v>244</v>
       </c>
       <c r="H35" s="7">
         <v>49</v>
@@ -3944,13 +3977,13 @@
         <v>50528</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M35" s="7">
         <v>144</v>
@@ -3959,13 +3992,13 @@
         <v>147583</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,13 +4013,13 @@
         <v>64013</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H36" s="7">
         <v>31</v>
@@ -3995,13 +4028,13 @@
         <v>32106</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M36" s="7">
         <v>96</v>
@@ -4010,13 +4043,13 @@
         <v>96119</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,13 +4064,13 @@
         <v>109230</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H37" s="7">
         <v>53</v>
@@ -4046,13 +4079,13 @@
         <v>51930</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M37" s="7">
         <v>162</v>
@@ -4061,13 +4094,13 @@
         <v>161160</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,7 +4156,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -4135,13 +4168,13 @@
         <v>56577</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H39" s="7">
         <v>38</v>
@@ -4150,13 +4183,13 @@
         <v>41788</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M39" s="7">
         <v>90</v>
@@ -4165,13 +4198,13 @@
         <v>98365</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,13 +4219,13 @@
         <v>131626</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H40" s="7">
         <v>87</v>
@@ -4201,13 +4234,13 @@
         <v>90107</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>281</v>
+        <v>64</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M40" s="7">
         <v>218</v>
@@ -4216,13 +4249,13 @@
         <v>221733</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>197</v>
+        <v>285</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,13 +4270,13 @@
         <v>89569</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H41" s="7">
         <v>35</v>
@@ -4252,13 +4285,13 @@
         <v>36598</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M41" s="7">
         <v>123</v>
@@ -4267,13 +4300,13 @@
         <v>126168</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>164</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,13 +4321,13 @@
         <v>133050</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H42" s="7">
         <v>58</v>
@@ -4303,13 +4336,13 @@
         <v>59515</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M42" s="7">
         <v>190</v>
@@ -4318,13 +4351,13 @@
         <v>192565</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,13 +4425,13 @@
         <v>192997</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="H44" s="7">
         <v>208</v>
@@ -4407,13 +4440,13 @@
         <v>218333</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>305</v>
+        <v>246</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M44" s="7">
         <v>392</v>
@@ -4422,13 +4455,13 @@
         <v>411330</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,13 +4476,13 @@
         <v>569454</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H45" s="7">
         <v>342</v>
@@ -4458,28 +4491,28 @@
         <v>352318</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>123</v>
+        <v>316</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M45" s="7">
         <v>896</v>
       </c>
       <c r="N45" s="7">
-        <v>921772</v>
+        <v>921771</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4527,13 @@
         <v>385522</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H46" s="7">
         <v>176</v>
@@ -4509,13 +4542,13 @@
         <v>180432</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M46" s="7">
         <v>560</v>
@@ -4524,13 +4557,13 @@
         <v>565954</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,10 +4578,10 @@
         <v>641679</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>328</v>
+        <v>26</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>329</v>
@@ -4623,7 +4656,7 @@
         <v>2756</v>
       </c>
       <c r="N48" s="7">
-        <v>2818971</v>
+        <v>2818970</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>50</v>
@@ -4661,7 +4694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBADF7DB-BC1C-4FB0-A6D1-90BF2ECC169A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D7A861-8C5A-4208-9AFA-1FAE49BFE797}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5093,13 +5126,13 @@
         <v>119979</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>78</v>
+        <v>354</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,13 +5147,13 @@
         <v>68023</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>245</v>
+        <v>357</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -5129,13 +5162,13 @@
         <v>38784</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M11" s="7">
         <v>100</v>
@@ -5144,13 +5177,13 @@
         <v>106806</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>363</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,13 +5198,13 @@
         <v>140136</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H12" s="7">
         <v>64</v>
@@ -5180,13 +5213,13 @@
         <v>69596</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M12" s="7">
         <v>196</v>
@@ -5195,13 +5228,13 @@
         <v>209732</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,13 +5302,13 @@
         <v>32854</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -5284,13 +5317,13 @@
         <v>26486</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>375</v>
+        <v>264</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M14" s="7">
         <v>56</v>
@@ -5299,13 +5332,13 @@
         <v>59340</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>222</v>
+        <v>380</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>237</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5320,13 +5353,13 @@
         <v>70057</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H15" s="7">
         <v>39</v>
@@ -5335,13 +5368,13 @@
         <v>42853</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>386</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="M15" s="7">
         <v>110</v>
@@ -5350,13 +5383,13 @@
         <v>112909</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>386</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5371,13 +5404,13 @@
         <v>35099</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>292</v>
+        <v>390</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -5386,13 +5419,13 @@
         <v>19673</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -5401,13 +5434,13 @@
         <v>54772</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5422,13 +5455,13 @@
         <v>72852</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -5437,13 +5470,13 @@
         <v>31694</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="M17" s="7">
         <v>97</v>
@@ -5455,10 +5488,10 @@
         <v>227</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,13 +5559,13 @@
         <v>73563</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="H19" s="7">
         <v>75</v>
@@ -5541,13 +5574,13 @@
         <v>79123</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M19" s="7">
         <v>140</v>
@@ -5556,13 +5589,13 @@
         <v>152687</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>147</v>
+        <v>414</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,16 +5607,16 @@
         <v>112</v>
       </c>
       <c r="D20" s="7">
-        <v>120771</v>
+        <v>120770</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>418</v>
       </c>
       <c r="H20" s="7">
         <v>82</v>
@@ -5592,13 +5625,13 @@
         <v>87925</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="M20" s="7">
         <v>194</v>
@@ -5607,13 +5640,13 @@
         <v>208695</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>312</v>
+        <v>422</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,16 +5658,16 @@
         <v>67</v>
       </c>
       <c r="D21" s="7">
-        <v>69609</v>
+        <v>69608</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="H21" s="7">
         <v>35</v>
@@ -5643,13 +5676,13 @@
         <v>38175</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="M21" s="7">
         <v>102</v>
@@ -5658,13 +5691,13 @@
         <v>107783</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5679,13 +5712,13 @@
         <v>163676</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="H22" s="7">
         <v>60</v>
@@ -5694,13 +5727,13 @@
         <v>71046</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="M22" s="7">
         <v>210</v>
@@ -5709,13 +5742,13 @@
         <v>234722</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>435</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,7 +5760,7 @@
         <v>394</v>
       </c>
       <c r="D23" s="7">
-        <v>427619</v>
+        <v>427618</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -5771,7 +5804,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5783,13 +5816,13 @@
         <v>24762</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="H24" s="7">
         <v>18</v>
@@ -5798,13 +5831,13 @@
         <v>18052</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="M24" s="7">
         <v>40</v>
@@ -5813,13 +5846,13 @@
         <v>42815</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5834,13 +5867,13 @@
         <v>30392</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>241</v>
+        <v>409</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
@@ -5849,13 +5882,13 @@
         <v>25508</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="M25" s="7">
         <v>51</v>
@@ -5864,13 +5897,13 @@
         <v>55900</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>165</v>
+        <v>456</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,13 +5918,13 @@
         <v>28525</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>236</v>
+        <v>460</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -5900,13 +5933,13 @@
         <v>18528</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="M26" s="7">
         <v>44</v>
@@ -5915,13 +5948,13 @@
         <v>47053</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>377</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5936,13 +5969,13 @@
         <v>58143</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="H27" s="7">
         <v>30</v>
@@ -5954,10 +5987,10 @@
         <v>21</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="M27" s="7">
         <v>83</v>
@@ -5966,13 +5999,13 @@
         <v>88346</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>161</v>
+        <v>470</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>463</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6028,7 +6061,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -6040,13 +6073,13 @@
         <v>26564</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="H29" s="7">
         <v>22</v>
@@ -6055,13 +6088,13 @@
         <v>24352</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="M29" s="7">
         <v>48</v>
@@ -6070,13 +6103,13 @@
         <v>50916</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>414</v>
+        <v>479</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6091,13 +6124,13 @@
         <v>49033</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -6106,13 +6139,13 @@
         <v>18642</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>475</v>
+        <v>327</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="M30" s="7">
         <v>66</v>
@@ -6121,13 +6154,13 @@
         <v>67675</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>326</v>
+        <v>486</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>479</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6142,13 +6175,13 @@
         <v>28389</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="H31" s="7">
         <v>18</v>
@@ -6157,13 +6190,13 @@
         <v>17707</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>404</v>
+        <v>491</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>484</v>
+        <v>285</v>
       </c>
       <c r="M31" s="7">
         <v>46</v>
@@ -6172,13 +6205,13 @@
         <v>46096</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6193,13 +6226,13 @@
         <v>61887</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>487</v>
+        <v>366</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="H32" s="7">
         <v>25</v>
@@ -6208,13 +6241,13 @@
         <v>25402</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="M32" s="7">
         <v>85</v>
@@ -6223,13 +6256,13 @@
         <v>87289</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6285,7 +6318,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6297,13 +6330,13 @@
         <v>72795</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="H34" s="7">
         <v>59</v>
@@ -6312,13 +6345,13 @@
         <v>65480</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>255</v>
+        <v>505</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="M34" s="7">
         <v>120</v>
@@ -6327,13 +6360,13 @@
         <v>138275</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>501</v>
+        <v>475</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6345,16 +6378,16 @@
         <v>120</v>
       </c>
       <c r="D35" s="7">
-        <v>125860</v>
+        <v>125861</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>344</v>
+        <v>509</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="H35" s="7">
         <v>78</v>
@@ -6363,13 +6396,13 @@
         <v>83747</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="M35" s="7">
         <v>198</v>
@@ -6378,13 +6411,13 @@
         <v>209607</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,10 +6435,10 @@
         <v>221</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>341</v>
+        <v>519</v>
       </c>
       <c r="H36" s="7">
         <v>44</v>
@@ -6414,13 +6447,13 @@
         <v>50006</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>407</v>
+        <v>522</v>
       </c>
       <c r="M36" s="7">
         <v>120</v>
@@ -6429,13 +6462,13 @@
         <v>130558</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,13 +6483,13 @@
         <v>157340</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="H37" s="7">
         <v>72</v>
@@ -6465,13 +6498,13 @@
         <v>77914</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="M37" s="7">
         <v>223</v>
@@ -6480,13 +6513,13 @@
         <v>235254</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6498,7 +6531,7 @@
         <v>408</v>
       </c>
       <c r="D38" s="7">
-        <v>436546</v>
+        <v>436547</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>50</v>
@@ -6542,7 +6575,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -6554,13 +6587,13 @@
         <v>54808</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="H39" s="7">
         <v>36</v>
@@ -6569,13 +6602,13 @@
         <v>44021</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>257</v>
+        <v>537</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>530</v>
+        <v>238</v>
       </c>
       <c r="M39" s="7">
         <v>84</v>
@@ -6584,13 +6617,13 @@
         <v>98829</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,13 +6638,13 @@
         <v>151799</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>80</v>
+        <v>542</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>413</v>
+        <v>543</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="H40" s="7">
         <v>97</v>
@@ -6620,13 +6653,13 @@
         <v>103377</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="M40" s="7">
         <v>236</v>
@@ -6635,13 +6668,13 @@
         <v>255175</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6656,13 +6689,13 @@
         <v>84432</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="H41" s="7">
         <v>48</v>
@@ -6671,13 +6704,13 @@
         <v>51630</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="M41" s="7">
         <v>123</v>
@@ -6686,13 +6719,13 @@
         <v>136062</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6707,13 +6740,13 @@
         <v>121456</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="H42" s="7">
         <v>65</v>
@@ -6722,13 +6755,13 @@
         <v>70569</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="M42" s="7">
         <v>179</v>
@@ -6737,13 +6770,13 @@
         <v>192025</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>558</v>
+        <v>484</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6811,13 +6844,13 @@
         <v>343004</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>533</v>
+        <v>569</v>
       </c>
       <c r="H44" s="7">
         <v>276</v>
@@ -6826,13 +6859,13 @@
         <v>304397</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="M44" s="7">
         <v>575</v>
@@ -6841,13 +6874,13 @@
         <v>647402</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>276</v>
+        <v>572</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>565</v>
+        <v>477</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6862,13 +6895,13 @@
         <v>612189</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>57</v>
+        <v>574</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="H45" s="7">
         <v>389</v>
@@ -6877,13 +6910,13 @@
         <v>417752</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>569</v>
+        <v>267</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>384</v>
+        <v>578</v>
       </c>
       <c r="M45" s="7">
         <v>968</v>
@@ -6892,13 +6925,13 @@
         <v>1029941</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -6913,13 +6946,13 @@
         <v>394628</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>499</v>
+        <v>582</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="H46" s="7">
         <v>216</v>
@@ -6928,13 +6961,13 @@
         <v>234503</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="M46" s="7">
         <v>588</v>
@@ -6943,13 +6976,13 @@
         <v>629130</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -6964,13 +6997,13 @@
         <v>775491</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="H47" s="7">
         <v>344</v>
@@ -6979,13 +7012,13 @@
         <v>376424</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="M47" s="7">
         <v>1073</v>
@@ -6994,13 +7027,13 @@
         <v>1151915</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q23_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q23_R-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47534D89-2191-4D75-A438-2850E23BC4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98E312DE-7E71-4C92-8AC4-FDC7DA5B698B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0E742A3F-AC83-4C90-A793-6FB3307C7572}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AE7400C8-16F4-4615-838E-BEA5DC6CB4CE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="587">
   <si>
     <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2007 (Tasa respuesta: 42,33%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>8,27%</t>
   </si>
   <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
   </si>
   <si>
     <t>19,28%</t>
   </si>
   <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
   </si>
   <si>
     <t>12,39%</t>
   </si>
   <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
   </si>
   <si>
     <t>Tercer Cuartil</t>
@@ -105,28 +105,28 @@
     <t>32,73%</t>
   </si>
   <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
   </si>
   <si>
     <t>22,78%</t>
   </si>
   <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
   </si>
   <si>
     <t>29,01%</t>
   </si>
   <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
   </si>
   <si>
     <t>Segundo Cuartil</t>
@@ -135,1705 +135,1669 @@
     <t>21,51%</t>
   </si>
   <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>Primer Cuartil</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
     <t>15,52%</t>
   </si>
   <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2012 (Tasa respuesta: 49,24%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
     <t>29,25%</t>
   </si>
   <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>Primer Cuartil</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
   </si>
   <si>
     <t>14,53%</t>
   </si>
   <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2012 (Tasa respuesta: 49,24%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
   </si>
   <si>
     <t>34,34%</t>
   </si>
   <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
   </si>
   <si>
     <t>33,31%</t>
   </si>
   <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
   </si>
 </sst>
 </file>
@@ -2245,7 +2209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E89B861-4D36-4388-96CF-709738922564}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F9D51E-EFCD-45B5-B802-F28422B13A3C}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2504,16 +2468,16 @@
         <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>51</v>
@@ -2522,13 +2486,13 @@
         <v>52205</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -2537,13 +2501,13 @@
         <v>23371</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>72</v>
@@ -2552,13 +2516,13 @@
         <v>75576</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,13 +2537,13 @@
         <v>139282</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>76</v>
@@ -2588,13 +2552,13 @@
         <v>83173</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>214</v>
@@ -2603,18 +2567,18 @@
         <v>222454</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2626,13 +2590,13 @@
         <v>31234</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>29</v>
@@ -2641,13 +2605,13 @@
         <v>30001</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>59</v>
@@ -2656,13 +2620,13 @@
         <v>61235</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,13 +2641,13 @@
         <v>75234</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -2692,13 +2656,13 @@
         <v>46290</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>111</v>
@@ -2707,13 +2671,13 @@
         <v>121524</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,13 +2692,13 @@
         <v>52786</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -2743,13 +2707,13 @@
         <v>22251</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>72</v>
@@ -2758,19 +2722,19 @@
         <v>75038</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>117</v>
@@ -2779,13 +2743,13 @@
         <v>120740</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>42</v>
@@ -2794,13 +2758,13 @@
         <v>41010</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>159</v>
@@ -2809,13 +2773,13 @@
         <v>161750</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,13 +2794,13 @@
         <v>279994</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>138</v>
@@ -2845,13 +2809,13 @@
         <v>139553</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>401</v>
@@ -2860,18 +2824,18 @@
         <v>419546</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2883,13 +2847,13 @@
         <v>10501</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -2898,13 +2862,13 @@
         <v>23328</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>33</v>
@@ -2913,13 +2877,13 @@
         <v>33829</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,13 +2898,13 @@
         <v>51438</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>36</v>
@@ -2949,13 +2913,13 @@
         <v>35487</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>86</v>
@@ -2964,13 +2928,13 @@
         <v>86925</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2985,13 +2949,13 @@
         <v>41501</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -3000,13 +2964,13 @@
         <v>14853</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>57</v>
@@ -3015,19 +2979,19 @@
         <v>56354</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>73</v>
@@ -3036,13 +3000,13 @@
         <v>75911</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -3051,13 +3015,13 @@
         <v>26717</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>100</v>
@@ -3066,13 +3030,13 @@
         <v>102629</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,13 +3051,13 @@
         <v>179351</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>100</v>
@@ -3102,13 +3066,13 @@
         <v>100385</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>276</v>
@@ -3117,18 +3081,18 @@
         <v>279737</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3140,13 +3104,13 @@
         <v>23716</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -3155,13 +3119,13 @@
         <v>31512</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>55</v>
@@ -3170,13 +3134,13 @@
         <v>55227</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3155,13 @@
         <v>63657</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>50</v>
@@ -3206,13 +3170,13 @@
         <v>49386</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>113</v>
@@ -3221,13 +3185,13 @@
         <v>113043</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +3206,13 @@
         <v>59947</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>26</v>
@@ -3257,13 +3221,13 @@
         <v>25404</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>86</v>
@@ -3272,19 +3236,19 @@
         <v>85351</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>66</v>
@@ -3293,13 +3257,13 @@
         <v>64523</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -3308,13 +3272,13 @@
         <v>29236</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>96</v>
@@ -3323,13 +3287,13 @@
         <v>93759</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,13 +3308,13 @@
         <v>211843</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>137</v>
@@ -3359,13 +3323,13 @@
         <v>135537</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>350</v>
@@ -3374,18 +3338,18 @@
         <v>347380</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3397,13 +3361,13 @@
         <v>15635</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -3412,13 +3376,13 @@
         <v>14121</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>30</v>
@@ -3427,13 +3391,13 @@
         <v>29756</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P24" s="7" t="s">
-        <v>168</v>
-      </c>
       <c r="Q24" s="7" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3412,13 @@
         <v>46813</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>31</v>
@@ -3463,13 +3427,13 @@
         <v>33639</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>76</v>
@@ -3478,13 +3442,13 @@
         <v>80452</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3463,13 @@
         <v>20324</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -3514,13 +3478,13 @@
         <v>8129</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>30</v>
@@ -3529,19 +3493,19 @@
         <v>28454</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7">
         <v>24</v>
@@ -3550,13 +3514,13 @@
         <v>22904</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>20</v>
@@ -3565,13 +3529,13 @@
         <v>21620</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>44</v>
@@ -3580,13 +3544,13 @@
         <v>44525</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,13 +3565,13 @@
         <v>105677</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>73</v>
@@ -3616,13 +3580,13 @@
         <v>77509</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
         <v>180</v>
@@ -3631,18 +3595,18 @@
         <v>183186</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -3654,13 +3618,13 @@
         <v>9498</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -3669,13 +3633,13 @@
         <v>9729</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -3684,13 +3648,13 @@
         <v>19227</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,13 +3669,13 @@
         <v>58041</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H30" s="7">
         <v>26</v>
@@ -3720,13 +3684,13 @@
         <v>27934</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>84</v>
@@ -3735,13 +3699,13 @@
         <v>85974</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,13 +3720,13 @@
         <v>27419</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>16</v>
@@ -3771,13 +3735,13 @@
         <v>16272</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M31" s="7">
         <v>44</v>
@@ -3786,19 +3750,19 @@
         <v>43691</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7">
         <v>60</v>
@@ -3807,13 +3771,13 @@
         <v>63115</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H32" s="7">
         <v>25</v>
@@ -3822,13 +3786,13 @@
         <v>24836</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M32" s="7">
         <v>85</v>
@@ -3837,13 +3801,13 @@
         <v>87951</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,13 +3822,13 @@
         <v>158073</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>77</v>
@@ -3873,13 +3837,13 @@
         <v>78772</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>232</v>
@@ -3888,18 +3852,18 @@
         <v>236844</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3911,13 +3875,13 @@
         <v>34313</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H34" s="7">
         <v>50</v>
@@ -3926,13 +3890,13 @@
         <v>51817</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M34" s="7">
         <v>80</v>
@@ -3941,13 +3905,13 @@
         <v>86130</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>203</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,13 +3926,13 @@
         <v>97055</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H35" s="7">
         <v>49</v>
@@ -3977,13 +3941,13 @@
         <v>50528</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M35" s="7">
         <v>144</v>
@@ -3992,13 +3956,13 @@
         <v>147583</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,13 +3977,13 @@
         <v>64013</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H36" s="7">
         <v>31</v>
@@ -4028,13 +3992,13 @@
         <v>32106</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="M36" s="7">
         <v>96</v>
@@ -4043,19 +4007,19 @@
         <v>96119</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>109</v>
@@ -4064,13 +4028,13 @@
         <v>109230</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H37" s="7">
         <v>53</v>
@@ -4079,13 +4043,13 @@
         <v>51930</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="M37" s="7">
         <v>162</v>
@@ -4094,13 +4058,13 @@
         <v>161160</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,13 +4079,13 @@
         <v>304611</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H38" s="7">
         <v>183</v>
@@ -4130,13 +4094,13 @@
         <v>186381</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M38" s="7">
         <v>482</v>
@@ -4145,18 +4109,18 @@
         <v>490992</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -4168,13 +4132,13 @@
         <v>56577</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H39" s="7">
         <v>38</v>
@@ -4183,13 +4147,13 @@
         <v>41788</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="M39" s="7">
         <v>90</v>
@@ -4198,13 +4162,13 @@
         <v>98365</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,13 +4183,13 @@
         <v>131626</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="H40" s="7">
         <v>87</v>
@@ -4234,13 +4198,13 @@
         <v>90107</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>64</v>
+        <v>277</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="M40" s="7">
         <v>218</v>
@@ -4249,13 +4213,13 @@
         <v>221733</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,13 +4234,13 @@
         <v>89569</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H41" s="7">
         <v>35</v>
@@ -4285,13 +4249,13 @@
         <v>36598</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M41" s="7">
         <v>123</v>
@@ -4300,19 +4264,19 @@
         <v>126168</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="7">
         <v>132</v>
@@ -4321,13 +4285,13 @@
         <v>133050</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H42" s="7">
         <v>58</v>
@@ -4336,13 +4300,13 @@
         <v>59515</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="M42" s="7">
         <v>190</v>
@@ -4351,13 +4315,13 @@
         <v>192565</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,13 +4336,13 @@
         <v>410821</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H43" s="7">
         <v>218</v>
@@ -4387,13 +4351,13 @@
         <v>228009</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M43" s="7">
         <v>621</v>
@@ -4402,13 +4366,13 @@
         <v>638831</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,13 +4389,13 @@
         <v>192997</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>205</v>
+        <v>302</v>
       </c>
       <c r="H44" s="7">
         <v>208</v>
@@ -4440,13 +4404,13 @@
         <v>218333</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>246</v>
+        <v>303</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M44" s="7">
         <v>392</v>
@@ -4455,13 +4419,13 @@
         <v>411330</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>311</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,13 +4440,13 @@
         <v>569454</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H45" s="7">
         <v>342</v>
@@ -4491,28 +4455,28 @@
         <v>352318</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M45" s="7">
         <v>896</v>
       </c>
       <c r="N45" s="7">
-        <v>921771</v>
+        <v>921772</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,13 +4491,13 @@
         <v>385522</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H46" s="7">
         <v>176</v>
@@ -4542,13 +4506,13 @@
         <v>180432</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M46" s="7">
         <v>560</v>
@@ -4557,19 +4521,19 @@
         <v>565954</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47" s="7">
         <v>632</v>
@@ -4578,13 +4542,13 @@
         <v>641679</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H47" s="7">
         <v>276</v>
@@ -4593,13 +4557,13 @@
         <v>278236</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="K47" s="7" t="s">
-        <v>331</v>
-      </c>
       <c r="L47" s="7" t="s">
-        <v>332</v>
+        <v>133</v>
       </c>
       <c r="M47" s="7">
         <v>908</v>
@@ -4608,13 +4572,13 @@
         <v>919915</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,13 +4593,13 @@
         <v>1789652</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H48" s="7">
         <v>1002</v>
@@ -4644,33 +4608,33 @@
         <v>1029319</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M48" s="7">
         <v>2756</v>
       </c>
       <c r="N48" s="7">
-        <v>2818970</v>
+        <v>2818971</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -4694,7 +4658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D7A861-8C5A-4208-9AFA-1FAE49BFE797}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6229E9E-CC12-41AE-A995-B76E9EFA22A2}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4711,7 +4675,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4816,39 +4780,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,39 +4825,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4906,84 +4870,84 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,44 +4960,44 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -5045,13 +5009,13 @@
         <v>57658</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H9" s="7">
         <v>42</v>
@@ -5060,13 +5024,13 @@
         <v>46882</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M9" s="7">
         <v>87</v>
@@ -5075,13 +5039,13 @@
         <v>104540</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,13 +5060,13 @@
         <v>64278</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H10" s="7">
         <v>52</v>
@@ -5111,13 +5075,13 @@
         <v>55701</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>351</v>
+        <v>240</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M10" s="7">
         <v>113</v>
@@ -5126,13 +5090,13 @@
         <v>119979</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>356</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,13 +5111,13 @@
         <v>68023</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -5162,13 +5126,13 @@
         <v>38784</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="M11" s="7">
         <v>100</v>
@@ -5177,19 +5141,19 @@
         <v>106806</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>295</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>132</v>
@@ -5198,13 +5162,13 @@
         <v>140136</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H12" s="7">
         <v>64</v>
@@ -5213,13 +5177,13 @@
         <v>69596</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="M12" s="7">
         <v>196</v>
@@ -5228,13 +5192,13 @@
         <v>209732</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5249,13 +5213,13 @@
         <v>330095</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>192</v>
@@ -5264,13 +5228,13 @@
         <v>210963</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>496</v>
@@ -5279,18 +5243,18 @@
         <v>541058</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5302,13 +5266,13 @@
         <v>32854</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>374</v>
+        <v>91</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -5317,13 +5281,13 @@
         <v>26486</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>264</v>
+        <v>372</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>378</v>
+        <v>56</v>
       </c>
       <c r="M14" s="7">
         <v>56</v>
@@ -5332,13 +5296,13 @@
         <v>59340</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5353,13 +5317,13 @@
         <v>70057</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="H15" s="7">
         <v>39</v>
@@ -5368,13 +5332,13 @@
         <v>42853</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="M15" s="7">
         <v>110</v>
@@ -5383,13 +5347,13 @@
         <v>112909</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>282</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5404,13 +5368,13 @@
         <v>35099</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -5419,13 +5383,13 @@
         <v>19673</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -5434,19 +5398,19 @@
         <v>54772</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>69</v>
@@ -5455,13 +5419,13 @@
         <v>72852</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -5470,13 +5434,13 @@
         <v>31694</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>192</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="M17" s="7">
         <v>97</v>
@@ -5485,13 +5449,13 @@
         <v>104546</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>406</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5506,13 +5470,13 @@
         <v>210862</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>109</v>
@@ -5521,13 +5485,13 @@
         <v>120706</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>316</v>
@@ -5536,18 +5500,18 @@
         <v>331567</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5559,13 +5523,13 @@
         <v>73563</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="H19" s="7">
         <v>75</v>
@@ -5574,13 +5538,13 @@
         <v>79123</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="M19" s="7">
         <v>140</v>
@@ -5589,13 +5553,13 @@
         <v>152687</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,16 +5571,16 @@
         <v>112</v>
       </c>
       <c r="D20" s="7">
-        <v>120770</v>
+        <v>120771</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="H20" s="7">
         <v>82</v>
@@ -5625,13 +5589,13 @@
         <v>87925</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>421</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>194</v>
@@ -5640,13 +5604,13 @@
         <v>208695</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,16 +5622,16 @@
         <v>67</v>
       </c>
       <c r="D21" s="7">
-        <v>69608</v>
+        <v>69609</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="H21" s="7">
         <v>35</v>
@@ -5676,13 +5640,13 @@
         <v>38175</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="M21" s="7">
         <v>102</v>
@@ -5691,19 +5655,19 @@
         <v>107783</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>150</v>
@@ -5712,13 +5676,13 @@
         <v>163676</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="H22" s="7">
         <v>60</v>
@@ -5727,13 +5691,13 @@
         <v>71046</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>436</v>
+        <v>250</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="M22" s="7">
         <v>210</v>
@@ -5742,13 +5706,13 @@
         <v>234722</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>281</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,16 +5724,16 @@
         <v>394</v>
       </c>
       <c r="D23" s="7">
-        <v>427618</v>
+        <v>427619</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>252</v>
@@ -5778,13 +5742,13 @@
         <v>276269</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>646</v>
@@ -5793,18 +5757,18 @@
         <v>703887</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5816,13 +5780,13 @@
         <v>24762</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="H24" s="7">
         <v>18</v>
@@ -5831,13 +5795,13 @@
         <v>18052</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="M24" s="7">
         <v>40</v>
@@ -5846,13 +5810,13 @@
         <v>42815</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,13 +5831,13 @@
         <v>30392</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>409</v>
+        <v>76</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
@@ -5882,13 +5846,13 @@
         <v>25508</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>453</v>
+        <v>145</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="M25" s="7">
         <v>51</v>
@@ -5897,13 +5861,13 @@
         <v>55900</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>455</v>
+        <v>214</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,13 +5882,13 @@
         <v>28525</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -5933,13 +5897,13 @@
         <v>18528</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>461</v>
+        <v>402</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>67</v>
+        <v>453</v>
       </c>
       <c r="M26" s="7">
         <v>44</v>
@@ -5948,19 +5912,19 @@
         <v>47053</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>377</v>
+        <v>455</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7">
         <v>53</v>
@@ -5969,13 +5933,13 @@
         <v>58143</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="H27" s="7">
         <v>30</v>
@@ -5987,10 +5951,10 @@
         <v>21</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="M27" s="7">
         <v>83</v>
@@ -5999,13 +5963,13 @@
         <v>88346</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>140</v>
+        <v>464</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6020,13 +5984,13 @@
         <v>141822</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>90</v>
@@ -6035,13 +5999,13 @@
         <v>92291</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
         <v>218</v>
@@ -6050,18 +6014,18 @@
         <v>234114</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -6073,13 +6037,13 @@
         <v>26564</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="H29" s="7">
         <v>22</v>
@@ -6088,13 +6052,13 @@
         <v>24352</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="M29" s="7">
         <v>48</v>
@@ -6103,13 +6067,13 @@
         <v>50916</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>479</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6124,13 +6088,13 @@
         <v>49033</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>481</v>
+        <v>162</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -6139,13 +6103,13 @@
         <v>18642</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>327</v>
+        <v>475</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="M30" s="7">
         <v>66</v>
@@ -6154,13 +6118,13 @@
         <v>67675</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>301</v>
+        <v>480</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,13 +6139,13 @@
         <v>28389</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>488</v>
+        <v>202</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="H31" s="7">
         <v>18</v>
@@ -6190,13 +6154,13 @@
         <v>17707</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>285</v>
+        <v>415</v>
       </c>
       <c r="M31" s="7">
         <v>46</v>
@@ -6205,19 +6169,19 @@
         <v>46096</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7">
         <v>60</v>
@@ -6226,13 +6190,13 @@
         <v>61887</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>366</v>
+        <v>487</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="H32" s="7">
         <v>25</v>
@@ -6241,13 +6205,13 @@
         <v>25402</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>496</v>
+        <v>433</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="M32" s="7">
         <v>85</v>
@@ -6256,13 +6220,13 @@
         <v>87289</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>500</v>
+        <v>137</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,13 +6241,13 @@
         <v>165873</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>83</v>
@@ -6292,13 +6256,13 @@
         <v>86103</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>245</v>
@@ -6307,18 +6271,18 @@
         <v>251976</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6330,13 +6294,13 @@
         <v>72795</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="H34" s="7">
         <v>59</v>
@@ -6345,13 +6309,13 @@
         <v>65480</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="M34" s="7">
         <v>120</v>
@@ -6360,13 +6324,13 @@
         <v>138275</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>507</v>
+        <v>389</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6381,13 +6345,13 @@
         <v>125861</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="H35" s="7">
         <v>78</v>
@@ -6396,13 +6360,13 @@
         <v>83747</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="M35" s="7">
         <v>198</v>
@@ -6411,13 +6375,13 @@
         <v>209607</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,13 +6396,13 @@
         <v>80551</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="H36" s="7">
         <v>44</v>
@@ -6447,13 +6411,13 @@
         <v>50006</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>521</v>
+        <v>442</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="M36" s="7">
         <v>120</v>
@@ -6462,19 +6426,19 @@
         <v>130558</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>151</v>
@@ -6483,13 +6447,13 @@
         <v>157340</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="H37" s="7">
         <v>72</v>
@@ -6498,13 +6462,13 @@
         <v>77914</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="M37" s="7">
         <v>223</v>
@@ -6513,13 +6477,13 @@
         <v>235254</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>532</v>
+        <v>204</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6534,13 +6498,13 @@
         <v>436547</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H38" s="7">
         <v>253</v>
@@ -6549,13 +6513,13 @@
         <v>277148</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M38" s="7">
         <v>661</v>
@@ -6564,18 +6528,18 @@
         <v>713695</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -6587,13 +6551,13 @@
         <v>54808</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="H39" s="7">
         <v>36</v>
@@ -6602,13 +6566,13 @@
         <v>44021</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>238</v>
+        <v>530</v>
       </c>
       <c r="M39" s="7">
         <v>84</v>
@@ -6617,13 +6581,13 @@
         <v>98829</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>540</v>
+        <v>202</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6638,13 +6602,13 @@
         <v>151799</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="H40" s="7">
         <v>97</v>
@@ -6653,13 +6617,13 @@
         <v>103377</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>546</v>
+        <v>222</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="M40" s="7">
         <v>236</v>
@@ -6668,13 +6632,13 @@
         <v>255175</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6689,13 +6653,13 @@
         <v>84432</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="H41" s="7">
         <v>48</v>
@@ -6704,13 +6668,13 @@
         <v>51630</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="M41" s="7">
         <v>123</v>
@@ -6719,19 +6683,19 @@
         <v>136062</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="7">
         <v>114</v>
@@ -6740,13 +6704,13 @@
         <v>121456</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="H42" s="7">
         <v>65</v>
@@ -6755,13 +6719,13 @@
         <v>70569</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>565</v>
+        <v>413</v>
       </c>
       <c r="M42" s="7">
         <v>179</v>
@@ -6770,13 +6734,13 @@
         <v>192025</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>484</v>
+        <v>557</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6791,13 +6755,13 @@
         <v>412495</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H43" s="7">
         <v>246</v>
@@ -6806,13 +6770,13 @@
         <v>269597</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M43" s="7">
         <v>622</v>
@@ -6821,13 +6785,13 @@
         <v>682092</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6844,13 +6808,13 @@
         <v>343004</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="H44" s="7">
         <v>276</v>
@@ -6859,13 +6823,13 @@
         <v>304397</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="M44" s="7">
         <v>575</v>
@@ -6874,13 +6838,13 @@
         <v>647402</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>477</v>
+        <v>566</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6895,13 +6859,13 @@
         <v>612189</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>576</v>
+        <v>449</v>
       </c>
       <c r="H45" s="7">
         <v>389</v>
@@ -6910,13 +6874,13 @@
         <v>417752</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>267</v>
+        <v>570</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="M45" s="7">
         <v>968</v>
@@ -6925,13 +6889,13 @@
         <v>1029941</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>579</v>
+        <v>41</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -6946,13 +6910,13 @@
         <v>394628</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>582</v>
+        <v>59</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>583</v>
+        <v>341</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="H46" s="7">
         <v>216</v>
@@ -6961,13 +6925,13 @@
         <v>234503</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>587</v>
+        <v>438</v>
       </c>
       <c r="M46" s="7">
         <v>588</v>
@@ -6976,19 +6940,19 @@
         <v>629130</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>589</v>
+        <v>548</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47" s="7">
         <v>729</v>
@@ -6997,13 +6961,13 @@
         <v>775491</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="H47" s="7">
         <v>344</v>
@@ -7012,13 +6976,13 @@
         <v>376424</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="M47" s="7">
         <v>1073</v>
@@ -7027,13 +6991,13 @@
         <v>1151915</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7048,13 +7012,13 @@
         <v>2125312</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H48" s="7">
         <v>1225</v>
@@ -7063,13 +7027,13 @@
         <v>1333076</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M48" s="7">
         <v>3204</v>
@@ -7078,18 +7042,18 @@
         <v>3458388</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q23_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q23_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98E312DE-7E71-4C92-8AC4-FDC7DA5B698B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50312F9F-237F-4585-BAC0-BFB75ABF00EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AE7400C8-16F4-4615-838E-BEA5DC6CB4CE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{77549033-F9E6-416A-BA28-AE20D8C2F20F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="588">
   <si>
     <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2007 (Tasa respuesta: 42,33%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>8,27%</t>
   </si>
   <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
   </si>
   <si>
     <t>19,28%</t>
   </si>
   <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
   </si>
   <si>
     <t>12,39%</t>
   </si>
   <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
   </si>
   <si>
     <t>Tercer Cuartil</t>
@@ -105,1699 +105,1702 @@
     <t>32,73%</t>
   </si>
   <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
   </si>
   <si>
     <t>22,78%</t>
   </si>
   <si>
-    <t>14,05%</t>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>Segundo Cuartil</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>Primer Cuartil</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
   </si>
   <si>
     <t>33,17%</t>
   </si>
   <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>Segundo Cuartil</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>Primer Cuartil</t>
-  </si>
-  <si>
-    <t>37,48%</t>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2012 (Tasa respuesta: 49,24%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
   </si>
   <si>
     <t>29,78%</t>
   </si>
   <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
   </si>
   <si>
     <t>20,27%</t>
   </si>
   <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2012 (Tasa respuesta: 49,24%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
     <t>17,59%</t>
   </si>
   <si>
-    <t>15,22%</t>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
   </si>
   <si>
     <t>18,19%</t>
   </si>
   <si>
-    <t>19,52%</t>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
   </si>
   <si>
     <t>36,49%</t>
   </si>
   <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
   </si>
   <si>
     <t>33,31%</t>
   </si>
   <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
   </si>
 </sst>
 </file>
@@ -2209,7 +2212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F9D51E-EFCD-45B5-B802-F28422B13A3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DEE379-956F-4860-B856-1CE52759E839}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2468,16 +2471,16 @@
         <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>51</v>
@@ -2486,13 +2489,13 @@
         <v>52205</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -2501,13 +2504,13 @@
         <v>23371</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>72</v>
@@ -2516,13 +2519,13 @@
         <v>75576</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2537,13 +2540,13 @@
         <v>139282</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>76</v>
@@ -2552,13 +2555,13 @@
         <v>83173</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>214</v>
@@ -2567,18 +2570,18 @@
         <v>222454</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2590,13 +2593,13 @@
         <v>31234</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>29</v>
@@ -2605,13 +2608,13 @@
         <v>30001</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>59</v>
@@ -2620,13 +2623,13 @@
         <v>61235</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,13 +2644,13 @@
         <v>75234</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -2656,13 +2659,13 @@
         <v>46290</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>111</v>
@@ -2671,13 +2674,13 @@
         <v>121524</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,13 +2695,13 @@
         <v>52786</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -2707,13 +2710,13 @@
         <v>22251</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>72</v>
@@ -2722,19 +2725,19 @@
         <v>75038</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>117</v>
@@ -2743,13 +2746,13 @@
         <v>120740</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>42</v>
@@ -2758,13 +2761,13 @@
         <v>41010</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>159</v>
@@ -2773,13 +2776,13 @@
         <v>161750</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,13 +2797,13 @@
         <v>279994</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>138</v>
@@ -2809,13 +2812,13 @@
         <v>139553</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>401</v>
@@ -2824,18 +2827,18 @@
         <v>419546</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2847,13 +2850,13 @@
         <v>10501</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -2862,13 +2865,13 @@
         <v>23328</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>33</v>
@@ -2877,13 +2880,13 @@
         <v>33829</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2898,13 +2901,13 @@
         <v>51438</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>36</v>
@@ -2913,13 +2916,13 @@
         <v>35487</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>86</v>
@@ -2928,13 +2931,13 @@
         <v>86925</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2949,13 +2952,13 @@
         <v>41501</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -2964,13 +2967,13 @@
         <v>14853</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>57</v>
@@ -2979,19 +2982,19 @@
         <v>56354</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>73</v>
@@ -3000,13 +3003,13 @@
         <v>75911</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -3015,13 +3018,13 @@
         <v>26717</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>100</v>
@@ -3030,13 +3033,13 @@
         <v>102629</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,13 +3054,13 @@
         <v>179351</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>100</v>
@@ -3066,13 +3069,13 @@
         <v>100385</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>276</v>
@@ -3081,18 +3084,18 @@
         <v>279737</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3104,13 +3107,13 @@
         <v>23716</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -3119,13 +3122,13 @@
         <v>31512</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>55</v>
@@ -3134,13 +3137,13 @@
         <v>55227</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,13 +3158,13 @@
         <v>63657</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>50</v>
@@ -3170,13 +3173,13 @@
         <v>49386</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>113</v>
@@ -3185,13 +3188,13 @@
         <v>113043</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,13 +3209,13 @@
         <v>59947</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>26</v>
@@ -3221,13 +3224,13 @@
         <v>25404</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>86</v>
@@ -3236,19 +3239,19 @@
         <v>85351</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>66</v>
@@ -3257,13 +3260,13 @@
         <v>64523</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -3272,13 +3275,13 @@
         <v>29236</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>96</v>
@@ -3287,13 +3290,13 @@
         <v>93759</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,13 +3311,13 @@
         <v>211843</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>137</v>
@@ -3323,13 +3326,13 @@
         <v>135537</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>350</v>
@@ -3338,18 +3341,18 @@
         <v>347380</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3361,13 +3364,13 @@
         <v>15635</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -3376,13 +3379,13 @@
         <v>14121</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>30</v>
@@ -3391,13 +3394,13 @@
         <v>29756</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,13 +3415,13 @@
         <v>46813</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>31</v>
@@ -3427,13 +3430,13 @@
         <v>33639</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>76</v>
@@ -3442,13 +3445,13 @@
         <v>80452</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>120</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,13 +3466,13 @@
         <v>20324</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -3478,13 +3481,13 @@
         <v>8129</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>30</v>
@@ -3493,19 +3496,19 @@
         <v>28454</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
         <v>24</v>
@@ -3514,13 +3517,13 @@
         <v>22904</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H27" s="7">
         <v>20</v>
@@ -3529,13 +3532,13 @@
         <v>21620</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M27" s="7">
         <v>44</v>
@@ -3544,13 +3547,13 @@
         <v>44525</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,13 +3568,13 @@
         <v>105677</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
         <v>73</v>
@@ -3580,13 +3583,13 @@
         <v>77509</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
         <v>180</v>
@@ -3595,18 +3598,18 @@
         <v>183186</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -3618,13 +3621,13 @@
         <v>9498</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -3633,13 +3636,13 @@
         <v>9729</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -3648,13 +3651,13 @@
         <v>19227</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,13 +3672,13 @@
         <v>58041</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H30" s="7">
         <v>26</v>
@@ -3684,13 +3687,13 @@
         <v>27934</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M30" s="7">
         <v>84</v>
@@ -3699,13 +3702,13 @@
         <v>85974</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,13 +3723,13 @@
         <v>27419</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H31" s="7">
         <v>16</v>
@@ -3735,13 +3738,13 @@
         <v>16272</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M31" s="7">
         <v>44</v>
@@ -3750,19 +3753,19 @@
         <v>43691</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
         <v>60</v>
@@ -3771,13 +3774,13 @@
         <v>63115</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H32" s="7">
         <v>25</v>
@@ -3786,13 +3789,13 @@
         <v>24836</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>85</v>
@@ -3801,13 +3804,13 @@
         <v>87951</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,13 +3825,13 @@
         <v>158073</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>77</v>
@@ -3837,13 +3840,13 @@
         <v>78772</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>232</v>
@@ -3852,18 +3855,18 @@
         <v>236844</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3875,13 +3878,13 @@
         <v>34313</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H34" s="7">
         <v>50</v>
@@ -3890,13 +3893,13 @@
         <v>51817</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M34" s="7">
         <v>80</v>
@@ -3905,13 +3908,13 @@
         <v>86130</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>54</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,13 +3929,13 @@
         <v>97055</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="H35" s="7">
         <v>49</v>
@@ -3941,13 +3944,13 @@
         <v>50528</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M35" s="7">
         <v>144</v>
@@ -3956,13 +3959,13 @@
         <v>147583</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,13 +3980,13 @@
         <v>64013</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H36" s="7">
         <v>31</v>
@@ -3992,13 +3995,13 @@
         <v>32106</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="M36" s="7">
         <v>96</v>
@@ -4007,19 +4010,19 @@
         <v>96119</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>109</v>
@@ -4028,13 +4031,13 @@
         <v>109230</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H37" s="7">
         <v>53</v>
@@ -4043,13 +4046,13 @@
         <v>51930</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M37" s="7">
         <v>162</v>
@@ -4058,13 +4061,13 @@
         <v>161160</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4082,13 @@
         <v>304611</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H38" s="7">
         <v>183</v>
@@ -4094,13 +4097,13 @@
         <v>186381</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M38" s="7">
         <v>482</v>
@@ -4109,18 +4112,18 @@
         <v>490992</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -4132,13 +4135,13 @@
         <v>56577</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H39" s="7">
         <v>38</v>
@@ -4147,13 +4150,13 @@
         <v>41788</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M39" s="7">
         <v>90</v>
@@ -4162,13 +4165,13 @@
         <v>98365</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4186,13 @@
         <v>131626</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="H40" s="7">
         <v>87</v>
@@ -4198,13 +4201,13 @@
         <v>90107</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M40" s="7">
         <v>218</v>
@@ -4213,13 +4216,13 @@
         <v>221733</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>280</v>
+        <v>197</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4237,13 @@
         <v>89569</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H41" s="7">
         <v>35</v>
@@ -4249,13 +4252,13 @@
         <v>36598</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M41" s="7">
         <v>123</v>
@@ -4264,19 +4267,19 @@
         <v>126168</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>290</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C42" s="7">
         <v>132</v>
@@ -4285,13 +4288,13 @@
         <v>133050</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H42" s="7">
         <v>58</v>
@@ -4300,13 +4303,13 @@
         <v>59515</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M42" s="7">
         <v>190</v>
@@ -4315,13 +4318,13 @@
         <v>192565</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,13 +4339,13 @@
         <v>410821</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H43" s="7">
         <v>218</v>
@@ -4351,13 +4354,13 @@
         <v>228009</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M43" s="7">
         <v>621</v>
@@ -4366,13 +4369,13 @@
         <v>638831</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,13 +4392,13 @@
         <v>192997</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H44" s="7">
         <v>208</v>
@@ -4404,13 +4407,13 @@
         <v>218333</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M44" s="7">
         <v>392</v>
@@ -4419,13 +4422,13 @@
         <v>411330</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>95</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4440,13 +4443,13 @@
         <v>569454</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H45" s="7">
         <v>342</v>
@@ -4455,13 +4458,13 @@
         <v>352318</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>312</v>
+        <v>123</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M45" s="7">
         <v>896</v>
@@ -4470,13 +4473,13 @@
         <v>921772</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,13 +4494,13 @@
         <v>385522</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>318</v>
+        <v>256</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H46" s="7">
         <v>176</v>
@@ -4506,13 +4509,13 @@
         <v>180432</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M46" s="7">
         <v>560</v>
@@ -4521,19 +4524,19 @@
         <v>565954</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C47" s="7">
         <v>632</v>
@@ -4542,13 +4545,13 @@
         <v>641679</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H47" s="7">
         <v>276</v>
@@ -4557,13 +4560,13 @@
         <v>278236</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>133</v>
+        <v>332</v>
       </c>
       <c r="M47" s="7">
         <v>908</v>
@@ -4572,13 +4575,13 @@
         <v>919915</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,13 +4596,13 @@
         <v>1789652</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H48" s="7">
         <v>1002</v>
@@ -4608,13 +4611,13 @@
         <v>1029319</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M48" s="7">
         <v>2756</v>
@@ -4623,18 +4626,18 @@
         <v>2818971</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -4658,7 +4661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6229E9E-CC12-41AE-A995-B76E9EFA22A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFDBEF6F-2A7D-43EE-8876-3D505F60E4DB}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4675,7 +4678,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4780,39 +4783,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,39 +4828,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,84 +4873,84 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4960,44 +4963,44 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -5009,13 +5012,13 @@
         <v>57658</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H9" s="7">
         <v>42</v>
@@ -5024,13 +5027,13 @@
         <v>46882</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M9" s="7">
         <v>87</v>
@@ -5039,13 +5042,13 @@
         <v>104540</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5060,13 +5063,13 @@
         <v>64278</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H10" s="7">
         <v>52</v>
@@ -5075,13 +5078,13 @@
         <v>55701</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>240</v>
+        <v>351</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M10" s="7">
         <v>113</v>
@@ -5090,13 +5093,13 @@
         <v>119979</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>351</v>
+        <v>78</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>240</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,13 +5114,13 @@
         <v>68023</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>352</v>
+        <v>245</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -5126,13 +5129,13 @@
         <v>38784</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M11" s="7">
         <v>100</v>
@@ -5141,19 +5144,19 @@
         <v>106806</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>132</v>
@@ -5162,13 +5165,13 @@
         <v>140136</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H12" s="7">
         <v>64</v>
@@ -5177,13 +5180,13 @@
         <v>69596</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M12" s="7">
         <v>196</v>
@@ -5192,13 +5195,13 @@
         <v>209732</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,13 +5216,13 @@
         <v>330095</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>192</v>
@@ -5228,13 +5231,13 @@
         <v>210963</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>496</v>
@@ -5243,18 +5246,18 @@
         <v>541058</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5266,13 +5269,13 @@
         <v>32854</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>91</v>
+        <v>372</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -5281,13 +5284,13 @@
         <v>26486</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>56</v>
+        <v>377</v>
       </c>
       <c r="M14" s="7">
         <v>56</v>
@@ -5296,13 +5299,13 @@
         <v>59340</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>375</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>376</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,13 +5320,13 @@
         <v>70057</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H15" s="7">
         <v>39</v>
@@ -5332,13 +5335,13 @@
         <v>42853</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>381</v>
+        <v>61</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M15" s="7">
         <v>110</v>
@@ -5347,13 +5350,13 @@
         <v>112909</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,7 +5371,7 @@
         <v>35099</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>386</v>
+        <v>292</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>387</v>
@@ -5410,7 +5413,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>69</v>
@@ -5437,10 +5440,10 @@
         <v>398</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>192</v>
+        <v>399</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M17" s="7">
         <v>97</v>
@@ -5449,13 +5452,13 @@
         <v>104546</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>78</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5470,13 +5473,13 @@
         <v>210862</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>109</v>
@@ -5485,13 +5488,13 @@
         <v>120706</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>316</v>
@@ -5500,18 +5503,18 @@
         <v>331567</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5523,13 +5526,13 @@
         <v>73563</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H19" s="7">
         <v>75</v>
@@ -5538,13 +5541,13 @@
         <v>79123</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M19" s="7">
         <v>140</v>
@@ -5553,13 +5556,13 @@
         <v>152687</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>408</v>
+        <v>147</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,13 +5577,13 @@
         <v>120771</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>412</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>82</v>
@@ -5595,7 +5598,7 @@
         <v>414</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>415</v>
       </c>
       <c r="M20" s="7">
         <v>194</v>
@@ -5604,7 +5607,7 @@
         <v>208695</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>416</v>
@@ -5667,7 +5670,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>150</v>
@@ -5691,13 +5694,13 @@
         <v>71046</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M22" s="7">
         <v>210</v>
@@ -5706,13 +5709,13 @@
         <v>234722</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +5730,13 @@
         <v>427619</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>252</v>
@@ -5742,13 +5745,13 @@
         <v>276269</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>646</v>
@@ -5757,18 +5760,18 @@
         <v>703887</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5780,13 +5783,13 @@
         <v>24762</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H24" s="7">
         <v>18</v>
@@ -5795,13 +5798,13 @@
         <v>18052</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M24" s="7">
         <v>40</v>
@@ -5810,13 +5813,13 @@
         <v>42815</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,13 +5834,13 @@
         <v>30392</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
@@ -5846,13 +5849,13 @@
         <v>25508</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>145</v>
+        <v>448</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M25" s="7">
         <v>51</v>
@@ -5861,13 +5864,13 @@
         <v>55900</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>214</v>
+        <v>450</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>448</v>
+        <v>165</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,13 +5885,13 @@
         <v>28525</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>452</v>
+        <v>236</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -5897,13 +5900,13 @@
         <v>18528</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>453</v>
+        <v>33</v>
       </c>
       <c r="M26" s="7">
         <v>44</v>
@@ -5912,19 +5915,19 @@
         <v>47053</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
         <v>53</v>
@@ -5933,13 +5936,13 @@
         <v>58143</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H27" s="7">
         <v>30</v>
@@ -5951,10 +5954,10 @@
         <v>21</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M27" s="7">
         <v>83</v>
@@ -5963,13 +5966,13 @@
         <v>88346</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="P27" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,13 +5987,13 @@
         <v>141822</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
         <v>90</v>
@@ -5999,13 +6002,13 @@
         <v>92291</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
         <v>218</v>
@@ -6014,18 +6017,18 @@
         <v>234114</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -6037,13 +6040,13 @@
         <v>26564</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="H29" s="7">
         <v>22</v>
@@ -6052,13 +6055,13 @@
         <v>24352</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>470</v>
       </c>
       <c r="M29" s="7">
         <v>48</v>
@@ -6067,13 +6070,13 @@
         <v>50916</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>472</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>147</v>
+        <v>414</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6088,10 +6091,10 @@
         <v>49033</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>474</v>
@@ -6121,10 +6124,10 @@
         <v>478</v>
       </c>
       <c r="P30" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6139,10 +6142,10 @@
         <v>28389</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>482</v>
@@ -6157,10 +6160,10 @@
         <v>483</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="M31" s="7">
         <v>46</v>
@@ -6169,7 +6172,7 @@
         <v>46096</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>485</v>
@@ -6181,7 +6184,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7">
         <v>60</v>
@@ -6205,13 +6208,13 @@
         <v>25402</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>433</v>
+        <v>490</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M32" s="7">
         <v>85</v>
@@ -6220,13 +6223,13 @@
         <v>87289</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>137</v>
+        <v>494</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,13 +6244,13 @@
         <v>165873</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
         <v>83</v>
@@ -6256,13 +6259,13 @@
         <v>86103</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M33" s="7">
         <v>245</v>
@@ -6271,18 +6274,18 @@
         <v>251976</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6294,13 +6297,13 @@
         <v>72795</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H34" s="7">
         <v>59</v>
@@ -6309,13 +6312,13 @@
         <v>65480</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>497</v>
+        <v>255</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M34" s="7">
         <v>120</v>
@@ -6324,13 +6327,13 @@
         <v>138275</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>389</v>
+        <v>502</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6342,16 +6345,16 @@
         <v>120</v>
       </c>
       <c r="D35" s="7">
-        <v>125861</v>
+        <v>125860</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>502</v>
+        <v>344</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H35" s="7">
         <v>78</v>
@@ -6360,13 +6363,13 @@
         <v>83747</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M35" s="7">
         <v>198</v>
@@ -6375,13 +6378,13 @@
         <v>209607</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6396,13 +6399,13 @@
         <v>80551</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>512</v>
+        <v>341</v>
       </c>
       <c r="H36" s="7">
         <v>44</v>
@@ -6414,10 +6417,10 @@
         <v>513</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>442</v>
+        <v>514</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>514</v>
+        <v>407</v>
       </c>
       <c r="M36" s="7">
         <v>120</v>
@@ -6426,7 +6429,7 @@
         <v>130558</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>515</v>
@@ -6438,7 +6441,7 @@
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>151</v>
@@ -6480,10 +6483,10 @@
         <v>523</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>204</v>
+        <v>524</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6495,16 +6498,16 @@
         <v>408</v>
       </c>
       <c r="D38" s="7">
-        <v>436547</v>
+        <v>436546</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H38" s="7">
         <v>253</v>
@@ -6513,13 +6516,13 @@
         <v>277148</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M38" s="7">
         <v>661</v>
@@ -6528,18 +6531,18 @@
         <v>713695</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -6551,13 +6554,13 @@
         <v>54808</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H39" s="7">
         <v>36</v>
@@ -6566,7 +6569,7 @@
         <v>44021</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>528</v>
+        <v>257</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>529</v>
@@ -6584,10 +6587,10 @@
         <v>531</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>202</v>
+        <v>532</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6602,13 +6605,13 @@
         <v>151799</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>533</v>
+        <v>80</v>
       </c>
       <c r="F40" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>535</v>
       </c>
       <c r="H40" s="7">
         <v>97</v>
@@ -6617,10 +6620,10 @@
         <v>103377</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>537</v>
@@ -6695,7 +6698,7 @@
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C42" s="7">
         <v>114</v>
@@ -6725,7 +6728,7 @@
         <v>554</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>413</v>
+        <v>555</v>
       </c>
       <c r="M42" s="7">
         <v>179</v>
@@ -6734,13 +6737,13 @@
         <v>192025</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6755,13 +6758,13 @@
         <v>412495</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H43" s="7">
         <v>246</v>
@@ -6770,13 +6773,13 @@
         <v>269597</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M43" s="7">
         <v>622</v>
@@ -6785,13 +6788,13 @@
         <v>682092</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6808,13 +6811,13 @@
         <v>343004</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>560</v>
+        <v>533</v>
       </c>
       <c r="H44" s="7">
         <v>276</v>
@@ -6838,13 +6841,13 @@
         <v>647402</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>565</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6859,13 +6862,13 @@
         <v>612189</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>567</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="H45" s="7">
         <v>389</v>
@@ -6874,13 +6877,13 @@
         <v>417752</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="K45" s="7" t="s">
-        <v>570</v>
-      </c>
       <c r="L45" s="7" t="s">
-        <v>571</v>
+        <v>384</v>
       </c>
       <c r="M45" s="7">
         <v>968</v>
@@ -6889,13 +6892,13 @@
         <v>1029941</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>41</v>
+        <v>570</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -6910,13 +6913,13 @@
         <v>394628</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>59</v>
+        <v>499</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>341</v>
+        <v>572</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H46" s="7">
         <v>216</v>
@@ -6925,13 +6928,13 @@
         <v>234503</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="L46" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="M46" s="7">
         <v>588</v>
@@ -6943,16 +6946,16 @@
         <v>577</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>548</v>
+        <v>578</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C47" s="7">
         <v>729</v>
@@ -6961,13 +6964,13 @@
         <v>775491</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H47" s="7">
         <v>344</v>
@@ -6976,13 +6979,13 @@
         <v>376424</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M47" s="7">
         <v>1073</v>
@@ -6991,13 +6994,13 @@
         <v>1151915</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7012,13 +7015,13 @@
         <v>2125312</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H48" s="7">
         <v>1225</v>
@@ -7027,13 +7030,13 @@
         <v>1333076</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M48" s="7">
         <v>3204</v>
@@ -7042,18 +7045,18 @@
         <v>3458388</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q23_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q23_R-Provincia-trans_orig.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50312F9F-237F-4585-BAC0-BFB75ABF00EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{659F989F-9AD3-426B-BF87-26139092313A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{77549033-F9E6-416A-BA28-AE20D8C2F20F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A5714ACE-4B83-4321-B2F6-F088C5109615}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
+    <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="1105">
   <si>
     <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2007 (Tasa respuesta: 42,33%)</t>
   </si>
@@ -1053,7 +1055,97 @@
     <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2012 (Tasa respuesta: 49,24%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
   </si>
   <si>
     <t>17,47%</t>
@@ -1248,559 +1340,2020 @@
     <t>37,14%</t>
   </si>
   <si>
-    <t>17,2%</t>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
   </si>
   <si>
     <t>13,33%</t>
   </si>
   <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2016 (Tasa respuesta: 3,93%)</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2023 (Tasa respuesta: 34,37%)</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
     <t>21,45%</t>
   </si>
   <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
   </si>
   <si>
     <t>26,19%</t>
   </si>
   <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
   </si>
 </sst>
 </file>
@@ -2212,7 +3765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DEE379-956F-4860-B856-1CE52759E839}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E759D3F3-F668-48BF-89D1-4565565F33ED}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4542,7 +6095,7 @@
         <v>632</v>
       </c>
       <c r="D47" s="7">
-        <v>641679</v>
+        <v>641678</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>327</v>
@@ -4593,7 +6146,7 @@
         <v>1754</v>
       </c>
       <c r="D48" s="7">
-        <v>1789652</v>
+        <v>1789651</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>50</v>
@@ -4661,7 +6214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFDBEF6F-2A7D-43EE-8876-3D505F60E4DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1635AC0-FEA0-4296-AFAD-92FF8CAFAD35}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4779,43 +6332,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="D4" s="7">
+        <v>40242</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>338</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="I4" s="7">
+        <v>29438</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>62</v>
+      </c>
+      <c r="N4" s="7">
+        <v>69680</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>338</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,43 +6383,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="D5" s="7">
+        <v>46514</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="I5" s="7">
+        <v>37290</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>67</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="N5" s="7">
+        <v>83804</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4869,43 +6434,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="D6" s="7">
+        <v>30695</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>338</v>
+        <v>31</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="I6" s="7">
+        <v>18033</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="N6" s="7">
+        <v>48728</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4914,43 +6485,49 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="D7" s="7">
+        <v>85957</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="I7" s="7">
+        <v>43969</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>118</v>
+      </c>
+      <c r="N7" s="7">
+        <v>129926</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>338</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,43 +6536,49 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>191</v>
+      </c>
+      <c r="D8" s="7">
+        <v>203408</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>338</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>338</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>338</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>109</v>
+      </c>
+      <c r="I8" s="7">
+        <v>128730</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>338</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>338</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>338</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>300</v>
+      </c>
+      <c r="N8" s="7">
+        <v>332139</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>338</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>338</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>338</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5012,13 +6595,13 @@
         <v>57658</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="H9" s="7">
         <v>42</v>
@@ -5027,13 +6610,13 @@
         <v>46882</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>342</v>
+        <v>372</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>343</v>
+        <v>373</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="M9" s="7">
         <v>87</v>
@@ -5042,13 +6625,13 @@
         <v>104540</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>346</v>
+        <v>376</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,13 +6646,13 @@
         <v>64278</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>349</v>
+        <v>379</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="H10" s="7">
         <v>52</v>
@@ -5078,13 +6661,13 @@
         <v>55701</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>351</v>
+        <v>381</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="M10" s="7">
         <v>113</v>
@@ -5096,10 +6679,10 @@
         <v>78</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>355</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5117,10 +6700,10 @@
         <v>245</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -5129,13 +6712,13 @@
         <v>38784</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>359</v>
+        <v>389</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="M11" s="7">
         <v>100</v>
@@ -5144,13 +6727,13 @@
         <v>106806</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>362</v>
+        <v>392</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,13 +6748,13 @@
         <v>140136</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>364</v>
+        <v>394</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>365</v>
+        <v>395</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>366</v>
+        <v>396</v>
       </c>
       <c r="H12" s="7">
         <v>64</v>
@@ -5180,13 +6763,13 @@
         <v>69596</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>369</v>
+        <v>399</v>
       </c>
       <c r="M12" s="7">
         <v>196</v>
@@ -5195,13 +6778,13 @@
         <v>209732</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>335</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>371</v>
+        <v>401</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,13 +6852,13 @@
         <v>32854</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>372</v>
+        <v>402</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>373</v>
+        <v>403</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -5284,13 +6867,13 @@
         <v>26486</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>376</v>
+        <v>406</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>377</v>
+        <v>407</v>
       </c>
       <c r="M14" s="7">
         <v>56</v>
@@ -5299,7 +6882,7 @@
         <v>59340</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>222</v>
@@ -5320,13 +6903,13 @@
         <v>70057</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>379</v>
+        <v>409</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>381</v>
+        <v>411</v>
       </c>
       <c r="H15" s="7">
         <v>39</v>
@@ -5335,13 +6918,13 @@
         <v>42853</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>382</v>
+        <v>412</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>61</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>383</v>
+        <v>413</v>
       </c>
       <c r="M15" s="7">
         <v>110</v>
@@ -5350,13 +6933,13 @@
         <v>112909</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>384</v>
+        <v>414</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>385</v>
+        <v>415</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>386</v>
+        <v>416</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5374,10 +6957,10 @@
         <v>292</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>387</v>
+        <v>417</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>418</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -5386,13 +6969,13 @@
         <v>19673</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>389</v>
+        <v>419</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>421</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -5401,13 +6984,13 @@
         <v>54772</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>392</v>
+        <v>422</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>423</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5422,13 +7005,13 @@
         <v>72852</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>395</v>
+        <v>425</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>396</v>
+        <v>426</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>397</v>
+        <v>427</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -5437,13 +7020,13 @@
         <v>31694</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>398</v>
+        <v>428</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>399</v>
+        <v>429</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="M17" s="7">
         <v>97</v>
@@ -5455,10 +7038,10 @@
         <v>227</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>402</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5520,46 +7103,46 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D19" s="7">
-        <v>73563</v>
+        <v>33321</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>403</v>
+        <v>433</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>404</v>
+        <v>434</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>405</v>
+        <v>435</v>
       </c>
       <c r="H19" s="7">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="I19" s="7">
-        <v>79123</v>
+        <v>49685</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>406</v>
+        <v>436</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>407</v>
+        <v>105</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>408</v>
+        <v>437</v>
       </c>
       <c r="M19" s="7">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="N19" s="7">
-        <v>152687</v>
+        <v>83007</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>409</v>
+        <v>438</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>147</v>
+        <v>439</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>410</v>
@@ -5571,49 +7154,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="D20" s="7">
-        <v>120771</v>
+        <v>74256</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>412</v>
+        <v>441</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>442</v>
       </c>
       <c r="H20" s="7">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="I20" s="7">
-        <v>87925</v>
+        <v>50635</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>413</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>414</v>
+        <v>443</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>415</v>
+        <v>444</v>
       </c>
       <c r="M20" s="7">
-        <v>194</v>
+        <v>120</v>
       </c>
       <c r="N20" s="7">
-        <v>208695</v>
+        <v>124891</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>312</v>
+        <v>445</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>416</v>
+        <v>446</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,49 +7205,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="D21" s="7">
-        <v>69609</v>
+        <v>38914</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>418</v>
+        <v>448</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>420</v>
+        <v>377</v>
       </c>
       <c r="H21" s="7">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="I21" s="7">
-        <v>38175</v>
+        <v>20141</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>422</v>
+        <v>451</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>423</v>
+        <v>452</v>
       </c>
       <c r="M21" s="7">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="N21" s="7">
-        <v>107783</v>
+        <v>59055</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>424</v>
+        <v>453</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>425</v>
+        <v>454</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>426</v>
+        <v>455</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5673,49 +7256,49 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="D22" s="7">
-        <v>163676</v>
+        <v>77719</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>427</v>
+        <v>456</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>428</v>
+        <v>457</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="H22" s="7">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="I22" s="7">
-        <v>71046</v>
+        <v>27077</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>430</v>
+        <v>459</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>431</v>
+        <v>181</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>432</v>
+        <v>460</v>
       </c>
       <c r="M22" s="7">
-        <v>210</v>
+        <v>92</v>
       </c>
       <c r="N22" s="7">
-        <v>234722</v>
+        <v>104796</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>435</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5724,10 +7307,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>394</v>
+        <v>203</v>
       </c>
       <c r="D23" s="7">
-        <v>427619</v>
+        <v>224210</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -5739,10 +7322,10 @@
         <v>50</v>
       </c>
       <c r="H23" s="7">
-        <v>252</v>
+        <v>143</v>
       </c>
       <c r="I23" s="7">
-        <v>276269</v>
+        <v>147538</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -5754,10 +7337,10 @@
         <v>50</v>
       </c>
       <c r="M23" s="7">
-        <v>646</v>
+        <v>346</v>
       </c>
       <c r="N23" s="7">
-        <v>703887</v>
+        <v>371749</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -5783,13 +7366,13 @@
         <v>24762</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>438</v>
+        <v>466</v>
       </c>
       <c r="H24" s="7">
         <v>18</v>
@@ -5798,13 +7381,13 @@
         <v>18052</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>439</v>
+        <v>467</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>441</v>
+        <v>469</v>
       </c>
       <c r="M24" s="7">
         <v>40</v>
@@ -5813,13 +7396,13 @@
         <v>42815</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>444</v>
+        <v>472</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,10 +7420,10 @@
         <v>241</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
@@ -5849,13 +7432,13 @@
         <v>25508</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>448</v>
+        <v>476</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>449</v>
+        <v>477</v>
       </c>
       <c r="M25" s="7">
         <v>51</v>
@@ -5864,13 +7447,13 @@
         <v>55900</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>165</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>451</v>
+        <v>479</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,10 +7468,10 @@
         <v>28525</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>452</v>
+        <v>480</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>236</v>
@@ -5903,7 +7486,7 @@
         <v>324</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>454</v>
+        <v>482</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>33</v>
@@ -5915,13 +7498,13 @@
         <v>47053</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>483</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>485</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5936,13 +7519,13 @@
         <v>58143</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>458</v>
+        <v>486</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>459</v>
+        <v>487</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>460</v>
+        <v>488</v>
       </c>
       <c r="H27" s="7">
         <v>30</v>
@@ -5954,10 +7537,10 @@
         <v>21</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>462</v>
+        <v>490</v>
       </c>
       <c r="M27" s="7">
         <v>83</v>
@@ -5966,13 +7549,13 @@
         <v>88346</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>449</v>
+        <v>477</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>161</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>463</v>
+        <v>491</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6040,13 +7623,13 @@
         <v>26564</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>464</v>
+        <v>492</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>465</v>
+        <v>493</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>466</v>
+        <v>494</v>
       </c>
       <c r="H29" s="7">
         <v>22</v>
@@ -6055,13 +7638,13 @@
         <v>24352</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>467</v>
+        <v>495</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>468</v>
+        <v>496</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>469</v>
+        <v>497</v>
       </c>
       <c r="M29" s="7">
         <v>48</v>
@@ -6070,13 +7653,13 @@
         <v>50916</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>470</v>
+        <v>498</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>471</v>
+        <v>499</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>414</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6091,13 +7674,13 @@
         <v>49033</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>472</v>
+        <v>501</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>473</v>
+        <v>502</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>474</v>
+        <v>503</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -6106,13 +7689,13 @@
         <v>18642</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>475</v>
+        <v>504</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>476</v>
+        <v>505</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>477</v>
+        <v>506</v>
       </c>
       <c r="M30" s="7">
         <v>66</v>
@@ -6121,13 +7704,13 @@
         <v>67675</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>478</v>
+        <v>507</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>326</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6142,13 +7725,13 @@
         <v>28389</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>481</v>
+        <v>510</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>482</v>
+        <v>511</v>
       </c>
       <c r="H31" s="7">
         <v>18</v>
@@ -6157,13 +7740,13 @@
         <v>17707</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>483</v>
+        <v>512</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>404</v>
+        <v>513</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>484</v>
+        <v>514</v>
       </c>
       <c r="M31" s="7">
         <v>46</v>
@@ -6172,13 +7755,13 @@
         <v>46096</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>485</v>
+        <v>515</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>486</v>
+        <v>516</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6193,13 +7776,13 @@
         <v>61887</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>487</v>
+        <v>517</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>488</v>
+        <v>518</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>489</v>
+        <v>519</v>
       </c>
       <c r="H32" s="7">
         <v>25</v>
@@ -6208,13 +7791,13 @@
         <v>25402</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>490</v>
+        <v>520</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>491</v>
+        <v>521</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>492</v>
+        <v>522</v>
       </c>
       <c r="M32" s="7">
         <v>85</v>
@@ -6223,13 +7806,13 @@
         <v>87289</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>493</v>
+        <v>523</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>494</v>
+        <v>524</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>495</v>
+        <v>525</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6297,13 +7880,13 @@
         <v>72795</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>496</v>
+        <v>526</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>497</v>
+        <v>527</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>498</v>
+        <v>528</v>
       </c>
       <c r="H34" s="7">
         <v>59</v>
@@ -6315,10 +7898,10 @@
         <v>255</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>499</v>
+        <v>529</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="M34" s="7">
         <v>120</v>
@@ -6327,13 +7910,13 @@
         <v>138275</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>501</v>
+        <v>359</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>502</v>
+        <v>531</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>503</v>
+        <v>532</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6345,16 +7928,16 @@
         <v>120</v>
       </c>
       <c r="D35" s="7">
-        <v>125860</v>
+        <v>125861</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>504</v>
+        <v>533</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>505</v>
+        <v>534</v>
       </c>
       <c r="H35" s="7">
         <v>78</v>
@@ -6363,13 +7946,13 @@
         <v>83747</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>506</v>
+        <v>535</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>507</v>
+        <v>536</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>508</v>
+        <v>537</v>
       </c>
       <c r="M35" s="7">
         <v>198</v>
@@ -6378,13 +7961,13 @@
         <v>209607</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>510</v>
+        <v>539</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>511</v>
+        <v>540</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,10 +7985,10 @@
         <v>221</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="H36" s="7">
         <v>44</v>
@@ -6414,13 +7997,13 @@
         <v>50006</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>514</v>
+        <v>543</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>407</v>
+        <v>544</v>
       </c>
       <c r="M36" s="7">
         <v>120</v>
@@ -6429,13 +8012,13 @@
         <v>130558</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>515</v>
+        <v>545</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>516</v>
+        <v>546</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,13 +8033,13 @@
         <v>157340</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>517</v>
+        <v>547</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>518</v>
+        <v>548</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>519</v>
+        <v>549</v>
       </c>
       <c r="H37" s="7">
         <v>72</v>
@@ -6465,13 +8048,13 @@
         <v>77914</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>521</v>
+        <v>551</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>522</v>
+        <v>552</v>
       </c>
       <c r="M37" s="7">
         <v>223</v>
@@ -6480,13 +8063,13 @@
         <v>235254</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>524</v>
+        <v>554</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>525</v>
+        <v>555</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6498,7 +8081,7 @@
         <v>408</v>
       </c>
       <c r="D38" s="7">
-        <v>436546</v>
+        <v>436547</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>50</v>
@@ -6554,13 +8137,13 @@
         <v>54808</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>526</v>
+        <v>556</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>527</v>
+        <v>557</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>528</v>
+        <v>558</v>
       </c>
       <c r="H39" s="7">
         <v>36</v>
@@ -6572,10 +8155,10 @@
         <v>257</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>529</v>
+        <v>559</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="M39" s="7">
         <v>84</v>
@@ -6584,13 +8167,13 @@
         <v>98829</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>531</v>
+        <v>561</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>532</v>
+        <v>562</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>533</v>
+        <v>563</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6608,10 +8191,10 @@
         <v>80</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>413</v>
+        <v>564</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>534</v>
+        <v>565</v>
       </c>
       <c r="H40" s="7">
         <v>97</v>
@@ -6620,13 +8203,13 @@
         <v>103377</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>535</v>
+        <v>566</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>536</v>
+        <v>567</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>537</v>
+        <v>568</v>
       </c>
       <c r="M40" s="7">
         <v>236</v>
@@ -6635,13 +8218,13 @@
         <v>255175</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>538</v>
+        <v>569</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>539</v>
+        <v>570</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>540</v>
+        <v>571</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6656,13 +8239,13 @@
         <v>84432</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>541</v>
+        <v>572</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>542</v>
+        <v>573</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>543</v>
+        <v>574</v>
       </c>
       <c r="H41" s="7">
         <v>48</v>
@@ -6671,13 +8254,13 @@
         <v>51630</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>544</v>
+        <v>575</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>545</v>
+        <v>576</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>546</v>
+        <v>577</v>
       </c>
       <c r="M41" s="7">
         <v>123</v>
@@ -6686,13 +8269,13 @@
         <v>136062</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>547</v>
+        <v>578</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>548</v>
+        <v>346</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>549</v>
+        <v>579</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6707,13 +8290,13 @@
         <v>121456</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>551</v>
+        <v>581</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>552</v>
+        <v>582</v>
       </c>
       <c r="H42" s="7">
         <v>65</v>
@@ -6722,13 +8305,13 @@
         <v>70569</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>553</v>
+        <v>583</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>554</v>
+        <v>584</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>555</v>
+        <v>585</v>
       </c>
       <c r="M42" s="7">
         <v>179</v>
@@ -6737,13 +8320,13 @@
         <v>192025</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>556</v>
+        <v>586</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>557</v>
+        <v>587</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>558</v>
+        <v>588</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6811,13 +8394,13 @@
         <v>343004</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>559</v>
+        <v>589</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>560</v>
+        <v>339</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>533</v>
+        <v>563</v>
       </c>
       <c r="H44" s="7">
         <v>276</v>
@@ -6826,13 +8409,13 @@
         <v>304397</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>561</v>
+        <v>590</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>562</v>
+        <v>591</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>563</v>
+        <v>592</v>
       </c>
       <c r="M44" s="7">
         <v>575</v>
@@ -6844,10 +8427,10 @@
         <v>276</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>564</v>
+        <v>593</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>565</v>
+        <v>594</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6865,10 +8448,10 @@
         <v>57</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>566</v>
+        <v>595</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>567</v>
+        <v>596</v>
       </c>
       <c r="H45" s="7">
         <v>389</v>
@@ -6877,13 +8460,13 @@
         <v>417752</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>568</v>
+        <v>343</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>569</v>
+        <v>597</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>384</v>
+        <v>414</v>
       </c>
       <c r="M45" s="7">
         <v>968</v>
@@ -6892,13 +8475,13 @@
         <v>1029941</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>571</v>
+        <v>599</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>568</v>
+        <v>343</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -6913,13 +8496,13 @@
         <v>394628</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>499</v>
+        <v>529</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>572</v>
+        <v>600</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>573</v>
+        <v>601</v>
       </c>
       <c r="H46" s="7">
         <v>216</v>
@@ -6928,13 +8511,13 @@
         <v>234503</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>574</v>
+        <v>602</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>575</v>
+        <v>603</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>576</v>
+        <v>604</v>
       </c>
       <c r="M46" s="7">
         <v>588</v>
@@ -6943,13 +8526,13 @@
         <v>629130</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>577</v>
+        <v>605</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>578</v>
+        <v>606</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>579</v>
+        <v>607</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -6964,13 +8547,13 @@
         <v>775491</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>580</v>
+        <v>608</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>581</v>
+        <v>609</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>582</v>
+        <v>610</v>
       </c>
       <c r="H47" s="7">
         <v>344</v>
@@ -6979,13 +8562,13 @@
         <v>376424</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>411</v>
+        <v>611</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>583</v>
+        <v>612</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>584</v>
+        <v>613</v>
       </c>
       <c r="M47" s="7">
         <v>1073</v>
@@ -6994,13 +8577,13 @@
         <v>1151915</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>585</v>
+        <v>614</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>586</v>
+        <v>615</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>587</v>
+        <v>616</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7043,6 +8626,4904 @@
       </c>
       <c r="N48" s="7">
         <v>3458388</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F150AF36-007A-4008-A477-309A052341D6}">
+  <dimension ref="A1:Q49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7">
+        <v>7247</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>922</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="M4" s="7">
+        <v>7</v>
+      </c>
+      <c r="N4" s="7">
+        <v>8170</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7">
+        <v>7415</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="H5" s="7">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2732</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="M5" s="7">
+        <v>9</v>
+      </c>
+      <c r="N5" s="7">
+        <v>10147</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3900</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="H6" s="7">
+        <v>4</v>
+      </c>
+      <c r="I6" s="7">
+        <v>3522</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="M6" s="7">
+        <v>8</v>
+      </c>
+      <c r="N6" s="7">
+        <v>7422</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="7">
+        <v>23</v>
+      </c>
+      <c r="D7" s="7">
+        <v>26667</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="H7" s="7">
+        <v>6</v>
+      </c>
+      <c r="I7" s="7">
+        <v>6324</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="M7" s="7">
+        <v>29</v>
+      </c>
+      <c r="N7" s="7">
+        <v>32991</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7">
+        <v>39</v>
+      </c>
+      <c r="D8" s="7">
+        <v>45230</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="7">
+        <v>14</v>
+      </c>
+      <c r="I8" s="7">
+        <v>13500</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="7">
+        <v>53</v>
+      </c>
+      <c r="N8" s="7">
+        <v>58730</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1016</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1016</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2904</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M10" s="7">
+        <v>3</v>
+      </c>
+      <c r="N10" s="7">
+        <v>2904</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="7">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7">
+        <v>4307</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>985</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="M11" s="7">
+        <v>5</v>
+      </c>
+      <c r="N11" s="7">
+        <v>5292</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="7">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7">
+        <v>6003</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="H12" s="7">
+        <v>6</v>
+      </c>
+      <c r="I12" s="7">
+        <v>5939</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="M12" s="7">
+        <v>12</v>
+      </c>
+      <c r="N12" s="7">
+        <v>11942</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7">
+        <v>14231</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="7">
+        <v>7</v>
+      </c>
+      <c r="I13" s="7">
+        <v>6924</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="7">
+        <v>21</v>
+      </c>
+      <c r="N13" s="7">
+        <v>21155</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>884</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="7">
+        <v>884</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1590</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1590</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="7">
+        <v>6</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5525</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>902</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="M16" s="7">
+        <v>7</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6427</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="7">
+        <v>5</v>
+      </c>
+      <c r="D17" s="7">
+        <v>4573</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1017</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="M17" s="7">
+        <v>6</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5591</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>12</v>
+      </c>
+      <c r="D18" s="7">
+        <v>11688</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="7">
+        <v>3</v>
+      </c>
+      <c r="I18" s="7">
+        <v>2804</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="7">
+        <v>15</v>
+      </c>
+      <c r="N18" s="7">
+        <v>14492</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>5</v>
+      </c>
+      <c r="D19" s="7">
+        <v>5113</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7">
+        <v>943</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="M19" s="7">
+        <v>6</v>
+      </c>
+      <c r="N19" s="7">
+        <v>6056</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>11</v>
+      </c>
+      <c r="D20" s="7">
+        <v>11020</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="H20" s="7">
+        <v>4</v>
+      </c>
+      <c r="I20" s="7">
+        <v>4351</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="M20" s="7">
+        <v>15</v>
+      </c>
+      <c r="N20" s="7">
+        <v>15371</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="7">
+        <v>8</v>
+      </c>
+      <c r="D21" s="7">
+        <v>7844</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1022</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="M21" s="7">
+        <v>9</v>
+      </c>
+      <c r="N21" s="7">
+        <v>8866</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="7">
+        <v>15</v>
+      </c>
+      <c r="D22" s="7">
+        <v>15670</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="H22" s="7">
+        <v>7</v>
+      </c>
+      <c r="I22" s="7">
+        <v>7835</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="M22" s="7">
+        <v>22</v>
+      </c>
+      <c r="N22" s="7">
+        <v>23505</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
+        <v>39</v>
+      </c>
+      <c r="D23" s="7">
+        <v>39647</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="7">
+        <v>13</v>
+      </c>
+      <c r="I23" s="7">
+        <v>14151</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="7">
+        <v>52</v>
+      </c>
+      <c r="N23" s="7">
+        <v>53798</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
+        <v>939</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7">
+        <v>851</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1790</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>888</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1</v>
+      </c>
+      <c r="N26" s="7">
+        <v>888</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3</v>
+      </c>
+      <c r="D27" s="7">
+        <v>2880</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1</v>
+      </c>
+      <c r="I27" s="7">
+        <v>979</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="M27" s="7">
+        <v>4</v>
+      </c>
+      <c r="N27" s="7">
+        <v>3858</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7">
+        <v>5</v>
+      </c>
+      <c r="D28" s="7">
+        <v>4707</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="7">
+        <v>2</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1830</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M28" s="7">
+        <v>7</v>
+      </c>
+      <c r="N28" s="7">
+        <v>6536</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="7">
+        <v>2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1941</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="M29" s="7">
+        <v>2</v>
+      </c>
+      <c r="N29" s="7">
+        <v>1941</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="7">
+        <v>5</v>
+      </c>
+      <c r="D30" s="7">
+        <v>4765</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="M30" s="7">
+        <v>5</v>
+      </c>
+      <c r="N30" s="7">
+        <v>4765</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="7">
+        <v>2</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1836</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="H31" s="7">
+        <v>2</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1838</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="M31" s="7">
+        <v>4</v>
+      </c>
+      <c r="N31" s="7">
+        <v>3673</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="7">
+        <v>5</v>
+      </c>
+      <c r="D32" s="7">
+        <v>4935</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>921</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="M32" s="7">
+        <v>6</v>
+      </c>
+      <c r="N32" s="7">
+        <v>5856</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
+        <v>14</v>
+      </c>
+      <c r="D33" s="7">
+        <v>13477</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" s="7">
+        <v>3</v>
+      </c>
+      <c r="I33" s="7">
+        <v>2759</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M33" s="7">
+        <v>17</v>
+      </c>
+      <c r="N33" s="7">
+        <v>16235</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="H34" s="7">
+        <v>3</v>
+      </c>
+      <c r="I34" s="7">
+        <v>2880</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="M34" s="7">
+        <v>3</v>
+      </c>
+      <c r="N34" s="7">
+        <v>2879</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="7">
+        <v>11</v>
+      </c>
+      <c r="D35" s="7">
+        <v>13202</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="H35" s="7">
+        <v>7</v>
+      </c>
+      <c r="I35" s="7">
+        <v>6913</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="M35" s="7">
+        <v>18</v>
+      </c>
+      <c r="N35" s="7">
+        <v>20115</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="7">
+        <v>6</v>
+      </c>
+      <c r="D36" s="7">
+        <v>6397</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="H36" s="7">
+        <v>5</v>
+      </c>
+      <c r="I36" s="7">
+        <v>5934</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="M36" s="7">
+        <v>11</v>
+      </c>
+      <c r="N36" s="7">
+        <v>12331</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="7">
+        <v>14</v>
+      </c>
+      <c r="D37" s="7">
+        <v>15070</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="H37" s="7">
+        <v>7</v>
+      </c>
+      <c r="I37" s="7">
+        <v>6973</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="M37" s="7">
+        <v>21</v>
+      </c>
+      <c r="N37" s="7">
+        <v>22043</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="7">
+        <v>31</v>
+      </c>
+      <c r="D38" s="7">
+        <v>34669</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>22</v>
+      </c>
+      <c r="I38" s="7">
+        <v>22700</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M38" s="7">
+        <v>53</v>
+      </c>
+      <c r="N38" s="7">
+        <v>57369</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>2</v>
+      </c>
+      <c r="D39" s="7">
+        <v>2538</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="H39" s="7">
+        <v>1</v>
+      </c>
+      <c r="I39" s="7">
+        <v>1085</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="M39" s="7">
+        <v>3</v>
+      </c>
+      <c r="N39" s="7">
+        <v>3622</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>5</v>
+      </c>
+      <c r="D40" s="7">
+        <v>5378</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="H40" s="7">
+        <v>2</v>
+      </c>
+      <c r="I40" s="7">
+        <v>2240</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="M40" s="7">
+        <v>7</v>
+      </c>
+      <c r="N40" s="7">
+        <v>7617</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>3</v>
+      </c>
+      <c r="D41" s="7">
+        <v>2933</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1</v>
+      </c>
+      <c r="I41" s="7">
+        <v>1164</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="M41" s="7">
+        <v>4</v>
+      </c>
+      <c r="N41" s="7">
+        <v>4097</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>23</v>
+      </c>
+      <c r="D42" s="7">
+        <v>24151</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="H42" s="7">
+        <v>3</v>
+      </c>
+      <c r="I42" s="7">
+        <v>2889</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="M42" s="7">
+        <v>26</v>
+      </c>
+      <c r="N42" s="7">
+        <v>27039</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
+        <v>33</v>
+      </c>
+      <c r="D43" s="7">
+        <v>34999</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
+        <v>7</v>
+      </c>
+      <c r="I43" s="7">
+        <v>7378</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
+        <v>40</v>
+      </c>
+      <c r="N43" s="7">
+        <v>42376</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="7">
+        <v>16</v>
+      </c>
+      <c r="D44" s="7">
+        <v>17856</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>820</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="H44" s="7">
+        <v>7</v>
+      </c>
+      <c r="I44" s="7">
+        <v>6714</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="M44" s="7">
+        <v>23</v>
+      </c>
+      <c r="N44" s="7">
+        <v>24570</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q44" s="7" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="7">
+        <v>43</v>
+      </c>
+      <c r="D45" s="7">
+        <v>47212</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>829</v>
+      </c>
+      <c r="H45" s="7">
+        <v>17</v>
+      </c>
+      <c r="I45" s="7">
+        <v>17087</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="M45" s="7">
+        <v>60</v>
+      </c>
+      <c r="N45" s="7">
+        <v>64299</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="7">
+        <v>34</v>
+      </c>
+      <c r="D46" s="7">
+        <v>33630</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="H46" s="7">
+        <v>15</v>
+      </c>
+      <c r="I46" s="7">
+        <v>15366</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="M46" s="7">
+        <v>49</v>
+      </c>
+      <c r="N46" s="7">
+        <v>48997</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>841</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="7">
+        <v>94</v>
+      </c>
+      <c r="D47" s="7">
+        <v>99949</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="H47" s="7">
+        <v>32</v>
+      </c>
+      <c r="I47" s="7">
+        <v>32877</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="M47" s="7">
+        <v>126</v>
+      </c>
+      <c r="N47" s="7">
+        <v>132825</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="7">
+        <v>187</v>
+      </c>
+      <c r="D48" s="7">
+        <v>198647</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H48" s="7">
+        <v>71</v>
+      </c>
+      <c r="I48" s="7">
+        <v>72044</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M48" s="7">
+        <v>258</v>
+      </c>
+      <c r="N48" s="7">
+        <v>270691</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FFBF9C-1F46-4858-BB9C-E418C15AA215}">
+  <dimension ref="A1:Q49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>34</v>
+      </c>
+      <c r="D4" s="7">
+        <v>28645</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="H4" s="7">
+        <v>40</v>
+      </c>
+      <c r="I4" s="7">
+        <v>20777</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="M4" s="7">
+        <v>74</v>
+      </c>
+      <c r="N4" s="7">
+        <v>49422</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>32</v>
+      </c>
+      <c r="D5" s="7">
+        <v>27041</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>862</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="H5" s="7">
+        <v>43</v>
+      </c>
+      <c r="I5" s="7">
+        <v>22182</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="M5" s="7">
+        <v>75</v>
+      </c>
+      <c r="N5" s="7">
+        <v>49222</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7">
+        <v>18</v>
+      </c>
+      <c r="D6" s="7">
+        <v>17676</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="H6" s="7">
+        <v>29</v>
+      </c>
+      <c r="I6" s="7">
+        <v>17799</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="M6" s="7">
+        <v>47</v>
+      </c>
+      <c r="N6" s="7">
+        <v>35476</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="7">
+        <v>53</v>
+      </c>
+      <c r="D7" s="7">
+        <v>58532</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="H7" s="7">
+        <v>28</v>
+      </c>
+      <c r="I7" s="7">
+        <v>16360</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>879</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="M7" s="7">
+        <v>81</v>
+      </c>
+      <c r="N7" s="7">
+        <v>74892</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7">
+        <v>137</v>
+      </c>
+      <c r="D8" s="7">
+        <v>131894</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="7">
+        <v>140</v>
+      </c>
+      <c r="I8" s="7">
+        <v>77118</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="7">
+        <v>277</v>
+      </c>
+      <c r="N8" s="7">
+        <v>209012</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="7">
+        <v>25</v>
+      </c>
+      <c r="D9" s="7">
+        <v>32678</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>882</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="H9" s="7">
+        <v>57</v>
+      </c>
+      <c r="I9" s="7">
+        <v>41160</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>886</v>
+      </c>
+      <c r="M9" s="7">
+        <v>82</v>
+      </c>
+      <c r="N9" s="7">
+        <v>73838</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7">
+        <v>63</v>
+      </c>
+      <c r="D10" s="7">
+        <v>83891</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>890</v>
+      </c>
+      <c r="H10" s="7">
+        <v>70</v>
+      </c>
+      <c r="I10" s="7">
+        <v>53833</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="M10" s="7">
+        <v>133</v>
+      </c>
+      <c r="N10" s="7">
+        <v>137724</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="7">
+        <v>37</v>
+      </c>
+      <c r="D11" s="7">
+        <v>46794</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>897</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="H11" s="7">
+        <v>31</v>
+      </c>
+      <c r="I11" s="7">
+        <v>25493</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="M11" s="7">
+        <v>68</v>
+      </c>
+      <c r="N11" s="7">
+        <v>72287</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>900</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="7">
+        <v>73</v>
+      </c>
+      <c r="D12" s="7">
+        <v>81638</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>902</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>903</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="H12" s="7">
+        <v>58</v>
+      </c>
+      <c r="I12" s="7">
+        <v>43710</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="M12" s="7">
+        <v>131</v>
+      </c>
+      <c r="N12" s="7">
+        <v>125348</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>198</v>
+      </c>
+      <c r="D13" s="7">
+        <v>245001</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="7">
+        <v>216</v>
+      </c>
+      <c r="I13" s="7">
+        <v>164196</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="7">
+        <v>414</v>
+      </c>
+      <c r="N13" s="7">
+        <v>409197</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="7">
+        <v>24</v>
+      </c>
+      <c r="D14" s="7">
+        <v>19594</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="H14" s="7">
+        <v>22</v>
+      </c>
+      <c r="I14" s="7">
+        <v>16627</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>912</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>913</v>
+      </c>
+      <c r="M14" s="7">
+        <v>46</v>
+      </c>
+      <c r="N14" s="7">
+        <v>36222</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>914</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="7">
+        <v>27</v>
+      </c>
+      <c r="D15" s="7">
+        <v>21675</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>918</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="H15" s="7">
+        <v>58</v>
+      </c>
+      <c r="I15" s="7">
+        <v>39771</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>920</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>921</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="M15" s="7">
+        <v>85</v>
+      </c>
+      <c r="N15" s="7">
+        <v>61446</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>923</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="7">
+        <v>34</v>
+      </c>
+      <c r="D16" s="7">
+        <v>28287</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>926</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="H16" s="7">
+        <v>42</v>
+      </c>
+      <c r="I16" s="7">
+        <v>27435</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="M16" s="7">
+        <v>76</v>
+      </c>
+      <c r="N16" s="7">
+        <v>55721</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="7">
+        <v>87</v>
+      </c>
+      <c r="D17" s="7">
+        <v>69658</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>934</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>935</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="H17" s="7">
+        <v>40</v>
+      </c>
+      <c r="I17" s="7">
+        <v>26258</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>937</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>938</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="M17" s="7">
+        <v>127</v>
+      </c>
+      <c r="N17" s="7">
+        <v>95916</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>940</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>172</v>
+      </c>
+      <c r="D18" s="7">
+        <v>139214</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="7">
+        <v>162</v>
+      </c>
+      <c r="I18" s="7">
+        <v>110091</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="7">
+        <v>334</v>
+      </c>
+      <c r="N18" s="7">
+        <v>249305</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7">
+        <v>23708</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>942</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>943</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="H19" s="7">
+        <v>53</v>
+      </c>
+      <c r="I19" s="7">
+        <v>31192</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>945</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>946</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>947</v>
+      </c>
+      <c r="M19" s="7">
+        <v>83</v>
+      </c>
+      <c r="N19" s="7">
+        <v>54899</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>948</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>53</v>
+      </c>
+      <c r="D20" s="7">
+        <v>57870</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>951</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>952</v>
+      </c>
+      <c r="H20" s="7">
+        <v>61</v>
+      </c>
+      <c r="I20" s="7">
+        <v>42491</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>953</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>954</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>955</v>
+      </c>
+      <c r="M20" s="7">
+        <v>114</v>
+      </c>
+      <c r="N20" s="7">
+        <v>100360</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>956</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>957</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="7">
+        <v>38</v>
+      </c>
+      <c r="D21" s="7">
+        <v>47249</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="H21" s="7">
+        <v>29</v>
+      </c>
+      <c r="I21" s="7">
+        <v>25794</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="M21" s="7">
+        <v>67</v>
+      </c>
+      <c r="N21" s="7">
+        <v>73043</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>923</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>962</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="7">
+        <v>49</v>
+      </c>
+      <c r="D22" s="7">
+        <v>39110</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>964</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>965</v>
+      </c>
+      <c r="H22" s="7">
+        <v>38</v>
+      </c>
+      <c r="I22" s="7">
+        <v>28906</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>966</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>967</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>968</v>
+      </c>
+      <c r="M22" s="7">
+        <v>87</v>
+      </c>
+      <c r="N22" s="7">
+        <v>68016</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>969</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>970</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
+        <v>170</v>
+      </c>
+      <c r="D23" s="7">
+        <v>167936</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="7">
+        <v>181</v>
+      </c>
+      <c r="I23" s="7">
+        <v>128383</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="7">
+        <v>351</v>
+      </c>
+      <c r="N23" s="7">
+        <v>296318</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>28</v>
+      </c>
+      <c r="D24" s="7">
+        <v>17088</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>971</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>973</v>
+      </c>
+      <c r="H24" s="7">
+        <v>28</v>
+      </c>
+      <c r="I24" s="7">
+        <v>10847</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>975</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="M24" s="7">
+        <v>56</v>
+      </c>
+      <c r="N24" s="7">
+        <v>27934</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>976</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>977</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="7">
+        <v>20</v>
+      </c>
+      <c r="D25" s="7">
+        <v>12725</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>979</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>980</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="7">
+        <v>26</v>
+      </c>
+      <c r="I25" s="7">
+        <v>11302</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>981</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="M25" s="7">
+        <v>46</v>
+      </c>
+      <c r="N25" s="7">
+        <v>24027</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="7">
+        <v>13</v>
+      </c>
+      <c r="D26" s="7">
+        <v>6970</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="7">
+        <v>14</v>
+      </c>
+      <c r="I26" s="7">
+        <v>6161</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="M26" s="7">
+        <v>27</v>
+      </c>
+      <c r="N26" s="7">
+        <v>13131</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="7">
+        <v>22</v>
+      </c>
+      <c r="D27" s="7">
+        <v>11796</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="H27" s="7">
+        <v>21</v>
+      </c>
+      <c r="I27" s="7">
+        <v>9872</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>994</v>
+      </c>
+      <c r="M27" s="7">
+        <v>43</v>
+      </c>
+      <c r="N27" s="7">
+        <v>21668</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7">
+        <v>83</v>
+      </c>
+      <c r="D28" s="7">
+        <v>48578</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="7">
+        <v>89</v>
+      </c>
+      <c r="I28" s="7">
+        <v>38182</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M28" s="7">
+        <v>172</v>
+      </c>
+      <c r="N28" s="7">
+        <v>86760</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="7">
+        <v>12</v>
+      </c>
+      <c r="D29" s="7">
+        <v>8543</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>996</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>997</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>998</v>
+      </c>
+      <c r="H29" s="7">
+        <v>8</v>
+      </c>
+      <c r="I29" s="7">
+        <v>4502</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>999</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>1001</v>
+      </c>
+      <c r="M29" s="7">
+        <v>20</v>
+      </c>
+      <c r="N29" s="7">
+        <v>13045</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>1002</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="7">
+        <v>38</v>
+      </c>
+      <c r="D30" s="7">
+        <v>26509</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H30" s="7">
+        <v>24</v>
+      </c>
+      <c r="I30" s="7">
+        <v>13320</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M30" s="7">
+        <v>62</v>
+      </c>
+      <c r="N30" s="7">
+        <v>39829</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="7">
+        <v>49</v>
+      </c>
+      <c r="D31" s="7">
+        <v>34906</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="H31" s="7">
+        <v>37</v>
+      </c>
+      <c r="I31" s="7">
+        <v>22898</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>1010</v>
+      </c>
+      <c r="M31" s="7">
+        <v>86</v>
+      </c>
+      <c r="N31" s="7">
+        <v>57804</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>976</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="7">
+        <v>73</v>
+      </c>
+      <c r="D32" s="7">
+        <v>50480</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H32" s="7">
+        <v>28</v>
+      </c>
+      <c r="I32" s="7">
+        <v>18382</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>886</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>1014</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="M32" s="7">
+        <v>101</v>
+      </c>
+      <c r="N32" s="7">
+        <v>68862</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>1015</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
+        <v>172</v>
+      </c>
+      <c r="D33" s="7">
+        <v>120438</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" s="7">
+        <v>97</v>
+      </c>
+      <c r="I33" s="7">
+        <v>59102</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M33" s="7">
+        <v>269</v>
+      </c>
+      <c r="N33" s="7">
+        <v>179540</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="7">
+        <v>71</v>
+      </c>
+      <c r="D34" s="7">
+        <v>76617</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H34" s="7">
+        <v>115</v>
+      </c>
+      <c r="I34" s="7">
+        <v>71078</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="M34" s="7">
+        <v>186</v>
+      </c>
+      <c r="N34" s="7">
+        <v>147694</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>1021</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="7">
+        <v>70</v>
+      </c>
+      <c r="D35" s="7">
+        <v>66401</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H35" s="7">
+        <v>88</v>
+      </c>
+      <c r="I35" s="7">
+        <v>61620</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>1026</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>1027</v>
+      </c>
+      <c r="M35" s="7">
+        <v>158</v>
+      </c>
+      <c r="N35" s="7">
+        <v>128020</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>937</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="7">
+        <v>45</v>
+      </c>
+      <c r="D36" s="7">
+        <v>40072</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>948</v>
+      </c>
+      <c r="H36" s="7">
+        <v>64</v>
+      </c>
+      <c r="I36" s="7">
+        <v>43171</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>1033</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>1034</v>
+      </c>
+      <c r="M36" s="7">
+        <v>109</v>
+      </c>
+      <c r="N36" s="7">
+        <v>83243</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>1036</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="7">
+        <v>109</v>
+      </c>
+      <c r="D37" s="7">
+        <v>108590</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H37" s="7">
+        <v>87</v>
+      </c>
+      <c r="I37" s="7">
+        <v>69129</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>1041</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>1042</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M37" s="7">
+        <v>196</v>
+      </c>
+      <c r="N37" s="7">
+        <v>177719</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>1043</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="7">
+        <v>295</v>
+      </c>
+      <c r="D38" s="7">
+        <v>291680</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>354</v>
+      </c>
+      <c r="I38" s="7">
+        <v>244997</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M38" s="7">
+        <v>649</v>
+      </c>
+      <c r="N38" s="7">
+        <v>536677</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>28</v>
+      </c>
+      <c r="D39" s="7">
+        <v>24455</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H39" s="7">
+        <v>19</v>
+      </c>
+      <c r="I39" s="7">
+        <v>12034</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>1049</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="M39" s="7">
+        <v>47</v>
+      </c>
+      <c r="N39" s="7">
+        <v>36490</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>1051</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>78</v>
+      </c>
+      <c r="D40" s="7">
+        <v>66427</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="H40" s="7">
+        <v>80</v>
+      </c>
+      <c r="I40" s="7">
+        <v>54764</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>1056</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>1057</v>
+      </c>
+      <c r="M40" s="7">
+        <v>158</v>
+      </c>
+      <c r="N40" s="7">
+        <v>121192</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>1058</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>1059</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>141</v>
+      </c>
+      <c r="D41" s="7">
+        <v>365832</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H41" s="7">
+        <v>82</v>
+      </c>
+      <c r="I41" s="7">
+        <v>62401</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>1063</v>
+      </c>
+      <c r="M41" s="7">
+        <v>223</v>
+      </c>
+      <c r="N41" s="7">
+        <v>428234</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>1064</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>1065</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>79</v>
+      </c>
+      <c r="D42" s="7">
+        <v>68164</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H42" s="7">
+        <v>32</v>
+      </c>
+      <c r="I42" s="7">
+        <v>22442</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>1070</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>1071</v>
+      </c>
+      <c r="M42" s="7">
+        <v>111</v>
+      </c>
+      <c r="N42" s="7">
+        <v>90607</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>1072</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>1073</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
+        <v>326</v>
+      </c>
+      <c r="D43" s="7">
+        <v>524879</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
+        <v>213</v>
+      </c>
+      <c r="I43" s="7">
+        <v>151642</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
+        <v>539</v>
+      </c>
+      <c r="N43" s="7">
+        <v>676522</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="7">
+        <v>252</v>
+      </c>
+      <c r="D44" s="7">
+        <v>231327</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H44" s="7">
+        <v>342</v>
+      </c>
+      <c r="I44" s="7">
+        <v>208217</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>1076</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>1078</v>
+      </c>
+      <c r="M44" s="7">
+        <v>594</v>
+      </c>
+      <c r="N44" s="7">
+        <v>439543</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>1079</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>1080</v>
+      </c>
+      <c r="Q44" s="7" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="7">
+        <v>381</v>
+      </c>
+      <c r="D45" s="7">
+        <v>362538</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H45" s="7">
+        <v>450</v>
+      </c>
+      <c r="I45" s="7">
+        <v>299282</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>1085</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>1086</v>
+      </c>
+      <c r="M45" s="7">
+        <v>831</v>
+      </c>
+      <c r="N45" s="7">
+        <v>661820</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>946</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="7">
+        <v>375</v>
+      </c>
+      <c r="D46" s="7">
+        <v>587786</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H46" s="7">
+        <v>328</v>
+      </c>
+      <c r="I46" s="7">
+        <v>231153</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>1092</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>1093</v>
+      </c>
+      <c r="M46" s="7">
+        <v>703</v>
+      </c>
+      <c r="N46" s="7">
+        <v>818939</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>1094</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="7">
+        <v>545</v>
+      </c>
+      <c r="D47" s="7">
+        <v>487969</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H47" s="7">
+        <v>332</v>
+      </c>
+      <c r="I47" s="7">
+        <v>235060</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>1099</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>1100</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>1101</v>
+      </c>
+      <c r="M47" s="7">
+        <v>877</v>
+      </c>
+      <c r="N47" s="7">
+        <v>723029</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>1102</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>1103</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="7">
+        <v>1553</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1669620</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H48" s="7">
+        <v>1452</v>
+      </c>
+      <c r="I48" s="7">
+        <v>973711</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M48" s="7">
+        <v>3005</v>
+      </c>
+      <c r="N48" s="7">
+        <v>2643331</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>50</v>
